--- a/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
+++ b/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$AB$79</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="525">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,10 +1769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Main PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1922,6 +1918,182 @@
   </si>
   <si>
     <t>PWR_LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main MCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control MCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD0_MFC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD2_MFC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD4_PIRANI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD1_MFC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD3_MFC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN0_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN1_STOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_CS0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_CS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_CS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT0_GV0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT1_GV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT2_GV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT3_GV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT4_PUMPV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT5_PUMPV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT6_PURGEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT7_VENTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT8_LED_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT9_LED_STOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_CS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCIB_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCIB_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_SIMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIB_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2312,7 +2484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2720,9 +2892,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2807,18 +2976,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,44 +3048,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3186,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3247,10 +3428,10 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="193"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -3278,10 +3459,10 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="195"/>
+      <c r="C4" s="176"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -3311,10 +3492,10 @@
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="195"/>
+      <c r="C5" s="176"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -3346,10 +3527,10 @@
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -3373,10 +3554,10 @@
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="197"/>
+      <c r="C7" s="178"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3495,51 +3676,51 @@
     </row>
     <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185" t="s">
+      <c r="C14" s="179"/>
+      <c r="D14" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="185" t="s">
+      <c r="E14" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="176" t="s">
+      <c r="F14" s="180"/>
+      <c r="G14" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="190"/>
-      <c r="I14" s="176" t="s">
+      <c r="H14" s="185"/>
+      <c r="I14" s="184" t="s">
         <v>311</v>
       </c>
-      <c r="J14" s="190"/>
-      <c r="K14" s="176" t="s">
+      <c r="J14" s="185"/>
+      <c r="K14" s="184" t="s">
         <v>312</v>
       </c>
-      <c r="L14" s="177"/>
+      <c r="L14" s="186"/>
       <c r="M14" s="23"/>
       <c r="N14" s="37"/>
-      <c r="O14" s="176" t="s">
+      <c r="O14" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177" t="s">
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186" t="s">
         <v>162</v>
       </c>
-      <c r="R14" s="177"/>
+      <c r="R14" s="186"/>
       <c r="S14" s="56"/>
       <c r="T14" s="35"/>
-      <c r="V14" s="176" t="s">
+      <c r="V14" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="177"/>
-      <c r="X14" s="178" t="s">
+      <c r="W14" s="186"/>
+      <c r="X14" s="190" t="s">
         <v>383</v>
       </c>
-      <c r="Y14" s="179"/>
-      <c r="Z14" s="179"/>
-      <c r="AA14" s="180"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="192"/>
     </row>
     <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
@@ -3548,7 +3729,7 @@
       <c r="C15" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="191"/>
+      <c r="D15" s="187"/>
       <c r="E15" s="15" t="s">
         <v>248</v>
       </c>
@@ -3626,10 +3807,10 @@
       <c r="D16" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="187" t="s">
+      <c r="E16" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="188"/>
+      <c r="F16" s="182"/>
       <c r="G16" s="50"/>
       <c r="H16" s="69"/>
       <c r="I16" s="79"/>
@@ -3721,19 +3902,19 @@
       <c r="AA17" s="39"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="172">
+      <c r="B18" s="171">
         <v>3</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="172">
         <v>3</v>
       </c>
-      <c r="D18" s="173" t="s">
+      <c r="D18" s="172" t="s">
         <v>150</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="168" t="s">
+      <c r="F18" s="167" t="s">
         <v>166</v>
       </c>
       <c r="G18" s="64"/>
@@ -3762,37 +3943,37 @@
         <v>72</v>
       </c>
       <c r="T18" s="18"/>
-      <c r="V18" s="162" t="s">
+      <c r="V18" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="W18" s="158" t="s">
+      <c r="W18" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="X18" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y18" s="158" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z18" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA18" s="159"/>
+      <c r="X18" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="157" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z18" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA18" s="158"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="172">
+      <c r="B19" s="171">
         <v>4</v>
       </c>
-      <c r="C19" s="173">
+      <c r="C19" s="172">
         <v>4</v>
       </c>
-      <c r="D19" s="173" t="s">
+      <c r="D19" s="172" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="168" t="s">
+      <c r="F19" s="167" t="s">
         <v>167</v>
       </c>
       <c r="G19" s="64"/>
@@ -3821,37 +4002,37 @@
         <v>72</v>
       </c>
       <c r="T19" s="18"/>
-      <c r="V19" s="162" t="s">
+      <c r="V19" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="W19" s="158" t="s">
+      <c r="W19" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="X19" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" s="158" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z19" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA19" s="159"/>
+      <c r="X19" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="157" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z19" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="158"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="172">
+      <c r="B20" s="171">
         <v>5</v>
       </c>
-      <c r="C20" s="173">
+      <c r="C20" s="172">
         <v>5</v>
       </c>
-      <c r="D20" s="173" t="s">
+      <c r="D20" s="172" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="F20" s="167" t="s">
         <v>171</v>
       </c>
       <c r="G20" s="64"/>
@@ -3878,37 +4059,37 @@
         <v>72</v>
       </c>
       <c r="T20" s="18"/>
-      <c r="V20" s="162" t="s">
+      <c r="V20" s="161" t="s">
         <v>171</v>
       </c>
-      <c r="W20" s="158" t="s">
+      <c r="W20" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="X20" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z20" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA20" s="159"/>
+      <c r="X20" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" s="157" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z20" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="158"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="172">
+      <c r="B21" s="171">
         <v>6</v>
       </c>
-      <c r="C21" s="173">
+      <c r="C21" s="172">
         <v>6</v>
       </c>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="172" t="s">
         <v>169</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="168" t="s">
+      <c r="F21" s="167" t="s">
         <v>175</v>
       </c>
       <c r="G21" s="64"/>
@@ -3935,22 +4116,22 @@
         <v>72</v>
       </c>
       <c r="T21" s="18"/>
-      <c r="V21" s="162" t="s">
+      <c r="V21" s="161" t="s">
         <v>175</v>
       </c>
-      <c r="W21" s="158" t="s">
+      <c r="W21" s="157" t="s">
         <v>379</v>
       </c>
-      <c r="X21" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" s="158" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z21" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="159"/>
+      <c r="X21" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="157" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z21" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="158"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="102">
@@ -3962,13 +4143,13 @@
       <c r="D22" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="174" t="s">
+      <c r="E22" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="175"/>
+      <c r="F22" s="189"/>
       <c r="G22" s="75"/>
       <c r="H22" s="103"/>
-      <c r="I22" s="170"/>
+      <c r="I22" s="169"/>
       <c r="J22" s="103"/>
       <c r="K22" s="75"/>
       <c r="L22" s="104"/>
@@ -3990,7 +4171,7 @@
         <v>257</v>
       </c>
       <c r="T22" s="103"/>
-      <c r="U22" s="171"/>
+      <c r="U22" s="170"/>
       <c r="V22" s="100" t="s">
         <v>170</v>
       </c>
@@ -4080,7 +4261,7 @@
       <c r="AA23" s="39"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" s="166">
+      <c r="B24" s="165">
         <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -4140,7 +4321,7 @@
         <v>22</v>
       </c>
       <c r="X24" s="82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y24" s="141" t="s">
         <v>72</v>
@@ -4151,7 +4332,7 @@
       <c r="AA24" s="81"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25" s="166">
+      <c r="B25" s="165">
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4211,10 +4392,10 @@
         <v>22</v>
       </c>
       <c r="X25" s="82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y25" s="141" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z25" s="141" t="s">
         <v>72</v>
@@ -4222,7 +4403,7 @@
       <c r="AA25" s="81"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="166">
+      <c r="B26" s="165">
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -4270,10 +4451,10 @@
         <v>22</v>
       </c>
       <c r="X26" s="82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y26" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z26" s="141" t="s">
         <v>72</v>
@@ -4290,10 +4471,10 @@
       <c r="D27" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="181" t="s">
+      <c r="E27" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="182"/>
+      <c r="F27" s="194"/>
       <c r="G27" s="65"/>
       <c r="H27" s="41"/>
       <c r="I27" s="28"/>
@@ -4309,10 +4490,10 @@
       <c r="S27" s="53"/>
       <c r="T27" s="41"/>
       <c r="V27" s="29"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
       <c r="AA27" s="41"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
@@ -4325,10 +4506,10 @@
       <c r="D28" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="182"/>
+      <c r="F28" s="194"/>
       <c r="G28" s="65"/>
       <c r="H28" s="41"/>
       <c r="I28" s="28"/>
@@ -4344,10 +4525,10 @@
       <c r="S28" s="53"/>
       <c r="T28" s="41"/>
       <c r="V28" s="29"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
       <c r="AA28" s="41"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
@@ -4410,7 +4591,7 @@
       <c r="AA29" s="39"/>
     </row>
     <row r="30" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="166">
+      <c r="B30" s="165">
         <v>15</v>
       </c>
       <c r="C30" s="42">
@@ -4458,20 +4639,20 @@
         <v>22</v>
       </c>
       <c r="X30" s="82" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Y30" s="82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Z30" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AA30" s="164" t="s">
-        <v>477</v>
+      <c r="AA30" s="163" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="166">
+      <c r="B31" s="165">
         <v>16</v>
       </c>
       <c r="C31" s="42">
@@ -4519,16 +4700,16 @@
         <v>22</v>
       </c>
       <c r="X31" s="82" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y31" s="82" t="s">
         <v>475</v>
-      </c>
-      <c r="Y31" s="82" t="s">
-        <v>476</v>
       </c>
       <c r="Z31" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AA31" s="164" t="s">
-        <v>477</v>
+      <c r="AA31" s="163" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.3">
@@ -4600,10 +4781,10 @@
       <c r="D33" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="181" t="s">
+      <c r="E33" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="182"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="65"/>
       <c r="H33" s="41"/>
       <c r="I33" s="28"/>
@@ -4619,10 +4800,10 @@
       <c r="S33" s="53"/>
       <c r="T33" s="41"/>
       <c r="V33" s="29"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
       <c r="AA33" s="41"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
@@ -4635,10 +4816,10 @@
       <c r="D34" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="181" t="s">
+      <c r="E34" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="182"/>
+      <c r="F34" s="194"/>
       <c r="G34" s="65"/>
       <c r="H34" s="41"/>
       <c r="I34" s="28"/>
@@ -4654,14 +4835,14 @@
       <c r="S34" s="53"/>
       <c r="T34" s="41"/>
       <c r="V34" s="29"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="155"/>
+      <c r="W34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="Y34" s="154"/>
+      <c r="Z34" s="154"/>
       <c r="AA34" s="41"/>
     </row>
     <row r="35" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="166">
+      <c r="B35" s="165">
         <v>20</v>
       </c>
       <c r="C35" s="13">
@@ -4714,8 +4895,8 @@
         <v>72</v>
       </c>
       <c r="T35" s="18"/>
-      <c r="V35" s="160" t="s">
-        <v>470</v>
+      <c r="V35" s="159" t="s">
+        <v>469</v>
       </c>
       <c r="W35" s="141" t="s">
         <v>379</v>
@@ -4732,7 +4913,7 @@
       <c r="AA35" s="134"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="166">
+      <c r="B36" s="165">
         <v>21</v>
       </c>
       <c r="C36" s="13">
@@ -4785,14 +4966,14 @@
         <v>72</v>
       </c>
       <c r="T36" s="18"/>
-      <c r="V36" s="160" t="s">
-        <v>471</v>
+      <c r="V36" s="159" t="s">
+        <v>470</v>
       </c>
       <c r="W36" s="141" t="s">
         <v>379</v>
       </c>
       <c r="X36" s="141" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y36" s="141" t="s">
         <v>72</v>
@@ -4803,7 +4984,7 @@
       <c r="AA36" s="134"/>
     </row>
     <row r="37" spans="2:28" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="166">
+      <c r="B37" s="165">
         <v>22</v>
       </c>
       <c r="C37" s="13">
@@ -4858,23 +5039,23 @@
         <v>25</v>
       </c>
       <c r="T37" s="139"/>
-      <c r="V37" s="161" t="s">
-        <v>472</v>
+      <c r="V37" s="160" t="s">
+        <v>471</v>
       </c>
       <c r="W37" s="141" t="s">
         <v>379</v>
       </c>
       <c r="X37" s="141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y37" s="141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Z37" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="AA37" s="165" t="s">
-        <v>478</v>
+      <c r="AA37" s="164" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="2:28" ht="49.5" x14ac:dyDescent="0.3">
@@ -5022,7 +5203,7 @@
       <c r="C40" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="157" t="s">
+      <c r="D40" s="156" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -5096,7 +5277,7 @@
       <c r="C41" s="13">
         <v>18</v>
       </c>
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="156" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -5167,7 +5348,7 @@
       <c r="C42" s="13">
         <v>19</v>
       </c>
-      <c r="D42" s="157" t="s">
+      <c r="D42" s="156" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="11" t="s">
@@ -5456,10 +5637,10 @@
       <c r="D46" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="181" t="s">
+      <c r="E46" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="182"/>
+      <c r="F46" s="194"/>
       <c r="G46" s="65"/>
       <c r="H46" s="41"/>
       <c r="I46" s="28"/>
@@ -5475,10 +5656,10 @@
       <c r="S46" s="53"/>
       <c r="T46" s="41"/>
       <c r="V46" s="29"/>
-      <c r="W46" s="155"/>
-      <c r="X46" s="155"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="155"/>
+      <c r="W46" s="154"/>
+      <c r="X46" s="154"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
       <c r="AA46" s="41"/>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.3">
@@ -5491,10 +5672,10 @@
       <c r="D47" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="181" t="s">
+      <c r="E47" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="182"/>
+      <c r="F47" s="194"/>
       <c r="G47" s="65"/>
       <c r="H47" s="41"/>
       <c r="I47" s="28"/>
@@ -5510,10 +5691,10 @@
       <c r="S47" s="53"/>
       <c r="T47" s="41"/>
       <c r="V47" s="29"/>
-      <c r="W47" s="155"/>
-      <c r="X47" s="155"/>
-      <c r="Y47" s="155"/>
-      <c r="Z47" s="155"/>
+      <c r="W47" s="154"/>
+      <c r="X47" s="154"/>
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="154"/>
       <c r="AA47" s="41"/>
     </row>
     <row r="48" spans="2:28" ht="49.5" x14ac:dyDescent="0.3">
@@ -5523,7 +5704,7 @@
       <c r="C48" s="13">
         <v>25</v>
       </c>
-      <c r="D48" s="157" t="s">
+      <c r="D48" s="156" t="s">
         <v>146</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -5585,7 +5766,7 @@
       <c r="C49" s="13">
         <v>26</v>
       </c>
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="156" t="s">
         <v>147</v>
       </c>
       <c r="E49" s="11" t="s">
@@ -5644,7 +5825,7 @@
       <c r="C50" s="13">
         <v>27</v>
       </c>
-      <c r="D50" s="157" t="s">
+      <c r="D50" s="156" t="s">
         <v>148</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -5703,7 +5884,7 @@
       <c r="C51" s="13">
         <v>28</v>
       </c>
-      <c r="D51" s="157" t="s">
+      <c r="D51" s="156" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="11" t="s">
@@ -5779,7 +5960,7 @@
       <c r="C52" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="157" t="s">
+      <c r="D52" s="156" t="s">
         <v>52</v>
       </c>
       <c r="E52" s="13" t="s">
@@ -5850,7 +6031,7 @@
       <c r="C53" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="157" t="s">
+      <c r="D53" s="156" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="13" t="s">
@@ -6062,7 +6243,7 @@
       <c r="AA55" s="39"/>
     </row>
     <row r="56" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="167">
+      <c r="B56" s="166">
         <v>41</v>
       </c>
       <c r="C56" s="13">
@@ -6074,7 +6255,7 @@
       <c r="E56" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="169" t="s">
+      <c r="F56" s="168" t="s">
         <v>181</v>
       </c>
       <c r="G56" s="64"/>
@@ -6253,7 +6434,7 @@
       <c r="AA58" s="94"/>
     </row>
     <row r="59" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="167">
+      <c r="B59" s="166">
         <v>44</v>
       </c>
       <c r="C59" s="13">
@@ -6326,7 +6507,7 @@
       <c r="C60" s="13">
         <v>33</v>
       </c>
-      <c r="D60" s="157" t="s">
+      <c r="D60" s="156" t="s">
         <v>71</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -6467,10 +6648,10 @@
       <c r="D62" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="182"/>
+      <c r="F62" s="194"/>
       <c r="G62" s="65"/>
       <c r="H62" s="41"/>
       <c r="I62" s="28"/>
@@ -6486,10 +6667,10 @@
       <c r="S62" s="53"/>
       <c r="T62" s="41"/>
       <c r="V62" s="29"/>
-      <c r="W62" s="155"/>
-      <c r="X62" s="155"/>
-      <c r="Y62" s="155"/>
-      <c r="Z62" s="155"/>
+      <c r="W62" s="154"/>
+      <c r="X62" s="154"/>
+      <c r="Y62" s="154"/>
+      <c r="Z62" s="154"/>
       <c r="AA62" s="41"/>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
@@ -6502,10 +6683,10 @@
       <c r="D63" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="181" t="s">
+      <c r="E63" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="F63" s="182"/>
+      <c r="F63" s="194"/>
       <c r="G63" s="65"/>
       <c r="H63" s="41"/>
       <c r="I63" s="28"/>
@@ -6521,10 +6702,10 @@
       <c r="S63" s="53"/>
       <c r="T63" s="41"/>
       <c r="V63" s="29"/>
-      <c r="W63" s="155"/>
-      <c r="X63" s="155"/>
-      <c r="Y63" s="155"/>
-      <c r="Z63" s="155"/>
+      <c r="W63" s="154"/>
+      <c r="X63" s="154"/>
+      <c r="Y63" s="154"/>
+      <c r="Z63" s="154"/>
       <c r="AA63" s="41"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
@@ -6674,7 +6855,7 @@
       <c r="C66" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="157" t="s">
+      <c r="D66" s="156" t="s">
         <v>90</v>
       </c>
       <c r="E66" s="13" t="s">
@@ -6745,7 +6926,7 @@
       <c r="C67" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="157" t="s">
+      <c r="D67" s="156" t="s">
         <v>82</v>
       </c>
       <c r="E67" s="13" t="s">
@@ -6816,7 +6997,7 @@
       <c r="C68" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="163" t="s">
+      <c r="D68" s="162" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="11" t="s">
@@ -7222,7 +7403,7 @@
       <c r="AA73" s="39"/>
     </row>
     <row r="74" spans="2:27" ht="33" x14ac:dyDescent="0.3">
-      <c r="B74" s="166">
+      <c r="B74" s="165">
         <v>59</v>
       </c>
       <c r="C74" s="13">
@@ -7278,7 +7459,7 @@
         <v>293</v>
       </c>
       <c r="X74" s="82" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y74" s="82" t="s">
         <v>264</v>
@@ -7298,10 +7479,10 @@
       <c r="D75" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="181" t="s">
+      <c r="E75" s="193" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="182"/>
+      <c r="F75" s="194"/>
       <c r="G75" s="65"/>
       <c r="H75" s="63"/>
       <c r="I75" s="29"/>
@@ -7323,16 +7504,16 @@
       <c r="V75" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="W75" s="155"/>
-      <c r="X75" s="155" t="s">
+      <c r="W75" s="154"/>
+      <c r="X75" s="154" t="s">
         <v>295</v>
       </c>
-      <c r="Y75" s="155"/>
-      <c r="Z75" s="155"/>
+      <c r="Y75" s="154"/>
+      <c r="Z75" s="154"/>
       <c r="AA75" s="41"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B76" s="166">
+      <c r="B76" s="165">
         <v>61</v>
       </c>
       <c r="C76" s="13">
@@ -7400,7 +7581,7 @@
         <v>305</v>
       </c>
       <c r="Y76" s="82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z76" s="82" t="s">
         <v>25</v>
@@ -7416,7 +7597,7 @@
       <c r="C77" s="13">
         <v>46</v>
       </c>
-      <c r="D77" s="157" t="s">
+      <c r="D77" s="156" t="s">
         <v>96</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -7493,10 +7674,10 @@
       <c r="D78" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="181" t="s">
+      <c r="E78" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="F78" s="182"/>
+      <c r="F78" s="194"/>
       <c r="G78" s="65"/>
       <c r="H78" s="41"/>
       <c r="I78" s="28"/>
@@ -7512,10 +7693,10 @@
       <c r="S78" s="53"/>
       <c r="T78" s="41"/>
       <c r="V78" s="29"/>
-      <c r="W78" s="155"/>
-      <c r="X78" s="155"/>
-      <c r="Y78" s="155"/>
-      <c r="Z78" s="155"/>
+      <c r="W78" s="154"/>
+      <c r="X78" s="154"/>
+      <c r="Y78" s="154"/>
+      <c r="Z78" s="154"/>
       <c r="AA78" s="41"/>
     </row>
     <row r="79" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7528,10 +7709,10 @@
       <c r="D79" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="183" t="s">
+      <c r="E79" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="F79" s="184"/>
+      <c r="F79" s="196"/>
       <c r="G79" s="66"/>
       <c r="H79" s="68"/>
       <c r="I79" s="73"/>
@@ -7547,10 +7728,10 @@
       <c r="S79" s="54"/>
       <c r="T79" s="68"/>
       <c r="V79" s="30"/>
-      <c r="W79" s="156"/>
-      <c r="X79" s="156"/>
-      <c r="Y79" s="156"/>
-      <c r="Z79" s="156"/>
+      <c r="W79" s="155"/>
+      <c r="X79" s="155"/>
+      <c r="Y79" s="155"/>
+      <c r="Z79" s="155"/>
       <c r="AA79" s="68"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.3">
@@ -7604,18 +7785,6 @@
   </sheetData>
   <autoFilter ref="B15:AB79"/>
   <mergeCells count="28">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="X14:AA14"/>
@@ -7632,6 +7801,18 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8286,10 +8467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N46"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="P28" sqref="P28:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8298,1051 +8479,1350 @@
     <col min="3" max="3" width="12.75" style="143" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="143" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="143" customWidth="1"/>
-    <col min="6" max="6" width="9" style="144"/>
-    <col min="7" max="7" width="11.875" style="143" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="143" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="143" customWidth="1"/>
+    <col min="8" max="8" width="9" style="144"/>
+    <col min="9" max="9" width="11.875" style="143" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="143" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.625" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="144" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="145" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="118" t="s">
+    <row r="3" spans="2:16" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="197" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="198" t="s">
         <v>442</v>
       </c>
-      <c r="D3" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="119" t="s">
-        <v>464</v>
-      </c>
-      <c r="F3" s="145" t="s">
-        <v>459</v>
-      </c>
-      <c r="G3" s="118" t="s">
+      <c r="D3" s="198" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="198" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" s="200" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="197" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="198" t="s">
         <v>442</v>
       </c>
-      <c r="H3" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="153">
+      <c r="J3" s="198" t="s">
+        <v>481</v>
+      </c>
+      <c r="K3" s="198" t="s">
+        <v>463</v>
+      </c>
+      <c r="L3" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="M3" s="200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="152">
         <v>1</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="146"/>
+      <c r="H4" s="152">
+        <v>2</v>
+      </c>
+      <c r="I4" s="150" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="114"/>
+      <c r="L4" s="145" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" s="146" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="152">
+        <v>3</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="150" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="153">
-        <v>2</v>
-      </c>
-      <c r="G4" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I4" s="115"/>
-      <c r="M4" s="5">
+      <c r="E5" s="150" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="150" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="149"/>
+      <c r="H5" s="152">
+        <v>4</v>
+      </c>
+      <c r="I5" s="150" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="L5" s="150" t="s">
+        <v>491</v>
+      </c>
+      <c r="M5" s="149"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="152">
+        <v>5</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="149"/>
+      <c r="H6" s="152">
+        <v>6</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K6" s="114"/>
+      <c r="L6" s="150" t="s">
+        <v>492</v>
+      </c>
+      <c r="M6" s="149"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="152">
+        <v>7</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="149"/>
+      <c r="H7" s="152">
+        <v>8</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="114"/>
+      <c r="L7" s="150" t="s">
+        <v>493</v>
+      </c>
+      <c r="M7" s="149"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="152">
+        <v>9</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145" t="s">
+        <v>486</v>
+      </c>
+      <c r="G8" s="146"/>
+      <c r="H8" s="152">
+        <v>10</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K8" s="114"/>
+      <c r="L8" s="145" t="s">
+        <v>494</v>
+      </c>
+      <c r="M8" s="146"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="152">
+        <v>11</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="146"/>
+      <c r="H9" s="152">
+        <v>12</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K9" s="114"/>
+      <c r="L9" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M9" s="146"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="152">
+        <v>13</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="146"/>
+      <c r="H10" s="152">
+        <v>14</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K10" s="114"/>
+      <c r="L10" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M10" s="146"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="152">
+        <v>15</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="146"/>
+      <c r="H11" s="152">
+        <v>16</v>
+      </c>
+      <c r="I11" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K11" s="114"/>
+      <c r="L11" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M11" s="146"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="152">
+        <v>17</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="146"/>
+      <c r="H12" s="152">
+        <v>18</v>
+      </c>
+      <c r="I12" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="J12" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K12" s="114"/>
+      <c r="L12" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M12" s="146"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="152">
+        <v>19</v>
+      </c>
+      <c r="C13" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="149"/>
+      <c r="H13" s="152">
+        <v>20</v>
+      </c>
+      <c r="I13" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="J13" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="K13" s="114"/>
+      <c r="L13" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="M13" s="149"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="152">
+        <v>21</v>
+      </c>
+      <c r="C14" s="150" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E14" s="150"/>
+      <c r="F14" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="149"/>
+      <c r="H14" s="152">
+        <v>22</v>
+      </c>
+      <c r="I14" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="J14" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="114"/>
+      <c r="L14" s="145" t="s">
+        <v>495</v>
+      </c>
+      <c r="M14" s="149"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="152">
+        <v>23</v>
+      </c>
+      <c r="C15" s="150" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="149"/>
+      <c r="H15" s="152">
+        <v>24</v>
+      </c>
+      <c r="I15" s="150" t="s">
+        <v>406</v>
+      </c>
+      <c r="J15" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K15" s="114"/>
+      <c r="L15" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M15" s="149"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="152">
+        <v>25</v>
+      </c>
+      <c r="C16" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="146"/>
+      <c r="H16" s="152">
+        <v>26</v>
+      </c>
+      <c r="I16" s="150" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="114"/>
+      <c r="L16" s="145" t="s">
+        <v>496</v>
+      </c>
+      <c r="M16" s="146"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="152">
+        <v>27</v>
+      </c>
+      <c r="C17" s="150" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="145"/>
+      <c r="F17" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="G17" s="146"/>
+      <c r="H17" s="152">
+        <v>28</v>
+      </c>
+      <c r="I17" s="150" t="s">
+        <v>415</v>
+      </c>
+      <c r="J17" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="114"/>
+      <c r="L17" s="150" t="s">
+        <v>497</v>
+      </c>
+      <c r="M17" s="146"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="152">
+        <v>29</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145" t="s">
+        <v>487</v>
+      </c>
+      <c r="G18" s="146"/>
+      <c r="H18" s="152">
+        <v>30</v>
+      </c>
+      <c r="I18" s="150" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K18" s="114"/>
+      <c r="L18" s="145" t="s">
+        <v>498</v>
+      </c>
+      <c r="M18" s="146"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="152">
+        <v>31</v>
+      </c>
+      <c r="C19" s="150" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145" t="s">
+        <v>488</v>
+      </c>
+      <c r="G19" s="146"/>
+      <c r="H19" s="152">
+        <v>32</v>
+      </c>
+      <c r="I19" s="150" t="s">
+        <v>417</v>
+      </c>
+      <c r="J19" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K19" s="114"/>
+      <c r="L19" s="145" t="s">
+        <v>499</v>
+      </c>
+      <c r="M19" s="146"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="152">
+        <v>33</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="146"/>
+      <c r="H20" s="152">
+        <v>34</v>
+      </c>
+      <c r="I20" s="150" t="s">
+        <v>418</v>
+      </c>
+      <c r="J20" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K20" s="114"/>
+      <c r="L20" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M20" s="146"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="152">
+        <v>35</v>
+      </c>
+      <c r="C21" s="150" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="146"/>
+      <c r="H21" s="152">
+        <v>36</v>
+      </c>
+      <c r="I21" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="J21" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K21" s="114"/>
+      <c r="L21" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M21" s="146"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="152">
+        <v>37</v>
+      </c>
+      <c r="C22" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="146"/>
+      <c r="H22" s="152">
+        <v>38</v>
+      </c>
+      <c r="I22" s="150" t="s">
+        <v>420</v>
+      </c>
+      <c r="J22" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="114"/>
+      <c r="L22" s="145" t="s">
+        <v>500</v>
+      </c>
+      <c r="M22" s="146"/>
+    </row>
+    <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="153">
         <v>39</v>
       </c>
-      <c r="N4" s="5">
-        <v>32.42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="153">
-        <v>3</v>
-      </c>
-      <c r="C5" s="151" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="151" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" s="150" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="153">
-        <v>4</v>
-      </c>
-      <c r="G5" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="H5" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I5" s="115"/>
-      <c r="M5" s="5">
-        <v>32.42</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="153">
-        <v>5</v>
-      </c>
-      <c r="C6" s="151" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="151" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="153">
-        <v>6</v>
-      </c>
-      <c r="G6" s="151" t="s">
-        <v>389</v>
-      </c>
-      <c r="H6" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I6" s="115"/>
-      <c r="M6" s="5">
-        <f>M4-M5</f>
-        <v>6.5799999999999983</v>
-      </c>
-      <c r="N6" s="5">
-        <f>N4+N5</f>
-        <v>36.42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="153">
-        <v>7</v>
-      </c>
-      <c r="C7" s="151" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="153">
-        <v>8</v>
-      </c>
-      <c r="G7" s="151" t="s">
-        <v>392</v>
-      </c>
-      <c r="H7" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="115"/>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="153">
-        <v>9</v>
-      </c>
-      <c r="C8" s="151" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="153">
-        <v>10</v>
-      </c>
-      <c r="G8" s="151" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I8" s="115"/>
-      <c r="M8" s="5">
-        <f>M6-M7</f>
-        <v>4.5799999999999983</v>
-      </c>
-      <c r="N8" s="5">
-        <f>N7-N6</f>
-        <v>2.5799999999999983</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="153">
-        <v>11</v>
-      </c>
-      <c r="C9" s="151" t="s">
-        <v>394</v>
-      </c>
-      <c r="D9" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="153">
-        <v>12</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>395</v>
-      </c>
-      <c r="H9" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="115"/>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5">
-        <f>N8/2</f>
-        <v>1.2899999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="153">
-        <v>13</v>
-      </c>
-      <c r="C10" s="151" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="153">
-        <v>14</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="115"/>
-      <c r="M10" s="5">
-        <f>M8-M9</f>
-        <v>2.5799999999999983</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="153">
-        <v>15</v>
-      </c>
-      <c r="C11" s="151" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="153">
-        <v>16</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>400</v>
-      </c>
-      <c r="H11" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I11" s="115"/>
-      <c r="M11" s="5">
-        <f>M10/2</f>
-        <v>1.2899999999999991</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="153">
-        <v>17</v>
-      </c>
-      <c r="C12" s="151" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="153">
-        <v>18</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="H12" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I12" s="115"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="153">
-        <v>19</v>
-      </c>
-      <c r="C13" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="153">
-        <v>20</v>
-      </c>
-      <c r="G13" s="151" t="s">
-        <v>403</v>
-      </c>
-      <c r="H13" s="151" t="s">
-        <v>403</v>
-      </c>
-      <c r="I13" s="115"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="153">
-        <v>21</v>
-      </c>
-      <c r="C14" s="151" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" s="151" t="s">
-        <v>448</v>
-      </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="153">
-        <v>22</v>
-      </c>
-      <c r="G14" s="151" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I14" s="115"/>
-      <c r="M14" s="5">
-        <v>2.58</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="153">
-        <v>23</v>
-      </c>
-      <c r="C15" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="151" t="s">
-        <v>448</v>
-      </c>
-      <c r="E15" s="150"/>
-      <c r="F15" s="153">
-        <v>24</v>
-      </c>
-      <c r="G15" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="H15" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I15" s="115"/>
-      <c r="M15" s="5">
-        <v>2</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="153">
-        <v>25</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="147"/>
-      <c r="F16" s="153">
-        <v>26</v>
-      </c>
-      <c r="G16" s="151" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I16" s="115"/>
-      <c r="M16" s="5">
-        <f>M14+M15</f>
-        <v>4.58</v>
-      </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="153">
-        <v>27</v>
-      </c>
-      <c r="C17" s="151" t="s">
+      <c r="C23" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="D17" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E17" s="147"/>
-      <c r="F17" s="153">
-        <v>28</v>
-      </c>
-      <c r="G17" s="151" t="s">
+      <c r="D23" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="148"/>
+      <c r="H23" s="153">
+        <v>40</v>
+      </c>
+      <c r="I23" s="151" t="s">
         <v>415</v>
       </c>
-      <c r="H17" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I17" s="115"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="153">
-        <v>29</v>
-      </c>
-      <c r="C18" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="153">
-        <v>30</v>
-      </c>
-      <c r="G18" s="151" t="s">
-        <v>416</v>
-      </c>
-      <c r="H18" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="115"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="153">
-        <v>31</v>
-      </c>
-      <c r="C19" s="151" t="s">
-        <v>410</v>
-      </c>
-      <c r="D19" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="153">
-        <v>32</v>
-      </c>
-      <c r="G19" s="151" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I19" s="115"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="153">
-        <v>33</v>
-      </c>
-      <c r="C20" s="151" t="s">
-        <v>411</v>
-      </c>
-      <c r="D20" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="153">
-        <v>34</v>
-      </c>
-      <c r="G20" s="151" t="s">
-        <v>418</v>
-      </c>
-      <c r="H20" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I20" s="115"/>
-      <c r="M20" s="5">
-        <v>2</v>
-      </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="153">
-        <v>35</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>412</v>
-      </c>
-      <c r="D21" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" s="147"/>
-      <c r="F21" s="153">
-        <v>36</v>
-      </c>
-      <c r="G21" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H21" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I21" s="115"/>
-      <c r="M21" s="5">
-        <v>19</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="153">
-        <v>37</v>
-      </c>
-      <c r="C22" s="151" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="147"/>
-      <c r="F22" s="153">
-        <v>38</v>
-      </c>
-      <c r="G22" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I22" s="115"/>
-      <c r="M22">
-        <f>M20*M21</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="154">
-        <v>39</v>
-      </c>
-      <c r="C23" s="152" t="s">
-        <v>408</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="149"/>
-      <c r="F23" s="154">
-        <v>40</v>
-      </c>
-      <c r="G23" s="152" t="s">
-        <v>415</v>
-      </c>
-      <c r="H23" s="148" t="s">
-        <v>444</v>
-      </c>
-      <c r="I23" s="117"/>
-    </row>
-    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="K23" s="116"/>
+      <c r="L23" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="M23" s="148"/>
+    </row>
+    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="144" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="145" t="s">
+    <row r="26" spans="2:16" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="197" t="s">
+        <v>458</v>
+      </c>
+      <c r="C26" s="198" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="198" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="198" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" s="200" t="s">
+        <v>463</v>
+      </c>
+      <c r="H26" s="197" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="198" t="s">
+        <v>442</v>
+      </c>
+      <c r="J26" s="198" t="s">
+        <v>481</v>
+      </c>
+      <c r="K26" s="198" t="s">
+        <v>463</v>
+      </c>
+      <c r="L26" s="199" t="s">
+        <v>482</v>
+      </c>
+      <c r="M26" s="200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="152">
+        <v>1</v>
+      </c>
+      <c r="C27" s="150" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="150" t="s">
         <v>459</v>
       </c>
-      <c r="C26" s="118" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="E26" s="119" t="s">
-        <v>464</v>
-      </c>
-      <c r="F26" s="145" t="s">
-        <v>459</v>
-      </c>
-      <c r="G26" s="118" t="s">
-        <v>442</v>
-      </c>
-      <c r="H26" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="I26" s="119" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="153">
-        <v>1</v>
-      </c>
-      <c r="C27" s="151" t="s">
+      <c r="F27" s="150" t="s">
+        <v>501</v>
+      </c>
+      <c r="G27" s="149"/>
+      <c r="H27" s="152">
+        <v>2</v>
+      </c>
+      <c r="I27" s="150" t="s">
+        <v>426</v>
+      </c>
+      <c r="J27" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K27" s="114"/>
+      <c r="L27" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M27" s="149"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="152">
+        <v>3</v>
+      </c>
+      <c r="C28" s="150" t="s">
+        <v>425</v>
+      </c>
+      <c r="D28" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145" t="s">
+        <v>502</v>
+      </c>
+      <c r="G28" s="146"/>
+      <c r="H28" s="152">
+        <v>4</v>
+      </c>
+      <c r="I28" s="150" t="s">
+        <v>427</v>
+      </c>
+      <c r="J28" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K28" s="114"/>
+      <c r="L28" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M28" s="146"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="152">
+        <v>5</v>
+      </c>
+      <c r="C29" s="150" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145" t="s">
+        <v>503</v>
+      </c>
+      <c r="G29" s="146"/>
+      <c r="H29" s="152">
+        <v>6</v>
+      </c>
+      <c r="I29" s="150" t="s">
+        <v>428</v>
+      </c>
+      <c r="J29" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K29" s="114"/>
+      <c r="L29" s="145" t="s">
+        <v>517</v>
+      </c>
+      <c r="M29" s="146"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="152">
+        <v>7</v>
+      </c>
+      <c r="C30" s="150" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="146"/>
+      <c r="H30" s="152">
+        <v>8</v>
+      </c>
+      <c r="I30" s="150" t="s">
+        <v>425</v>
+      </c>
+      <c r="J30" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K30" s="114"/>
+      <c r="L30" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M30" s="146"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="152">
+        <v>9</v>
+      </c>
+      <c r="C31" s="150" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" s="146"/>
+      <c r="H31" s="152">
+        <v>10</v>
+      </c>
+      <c r="I31" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K31" s="114"/>
+      <c r="L31" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M31" s="146"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="152">
+        <v>11</v>
+      </c>
+      <c r="C32" s="150" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" s="146"/>
+      <c r="H32" s="152">
+        <v>12</v>
+      </c>
+      <c r="I32" s="150" t="s">
+        <v>438</v>
+      </c>
+      <c r="J32" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K32" s="114"/>
+      <c r="L32" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M32" s="146"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="152">
+        <v>13</v>
+      </c>
+      <c r="C33" s="150" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="151" t="s">
+      <c r="D33" s="150" t="s">
         <v>449</v>
       </c>
-      <c r="E27" s="150" t="s">
+      <c r="E33" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="F27" s="153">
-        <v>2</v>
-      </c>
-      <c r="G27" s="151" t="s">
-        <v>426</v>
-      </c>
-      <c r="H27" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I27" s="115"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="153">
-        <v>3</v>
-      </c>
-      <c r="C28" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E28" s="147"/>
-      <c r="F28" s="153">
-        <v>4</v>
-      </c>
-      <c r="G28" s="151" t="s">
+      <c r="F33" s="150" t="s">
+        <v>506</v>
+      </c>
+      <c r="G33" s="149"/>
+      <c r="H33" s="152">
+        <v>14</v>
+      </c>
+      <c r="I33" s="150" t="s">
+        <v>411</v>
+      </c>
+      <c r="J33" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K33" s="114"/>
+      <c r="L33" s="150" t="s">
+        <v>520</v>
+      </c>
+      <c r="M33" s="149"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="152">
+        <v>15</v>
+      </c>
+      <c r="C34" s="150" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145" t="s">
+        <v>507</v>
+      </c>
+      <c r="G34" s="146"/>
+      <c r="H34" s="152">
+        <v>16</v>
+      </c>
+      <c r="I34" s="150" t="s">
+        <v>412</v>
+      </c>
+      <c r="J34" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K34" s="114"/>
+      <c r="L34" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="M34" s="146"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="152">
+        <v>17</v>
+      </c>
+      <c r="C35" s="150" t="s">
         <v>427</v>
       </c>
-      <c r="H28" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I28" s="115"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="153">
-        <v>5</v>
-      </c>
-      <c r="C29" s="151" t="s">
+      <c r="D35" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145" t="s">
+        <v>508</v>
+      </c>
+      <c r="G35" s="146"/>
+      <c r="H35" s="152">
+        <v>18</v>
+      </c>
+      <c r="I35" s="150" t="s">
+        <v>428</v>
+      </c>
+      <c r="J35" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K35" s="114"/>
+      <c r="L35" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M35" s="146"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="152">
+        <v>19</v>
+      </c>
+      <c r="C36" s="150" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="G36" s="146"/>
+      <c r="H36" s="152">
+        <v>20</v>
+      </c>
+      <c r="I36" s="150" t="s">
+        <v>435</v>
+      </c>
+      <c r="J36" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K36" s="114"/>
+      <c r="L36" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M36" s="146"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="152">
+        <v>21</v>
+      </c>
+      <c r="C37" s="150" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145" t="s">
+        <v>510</v>
+      </c>
+      <c r="G37" s="146"/>
+      <c r="H37" s="152">
+        <v>22</v>
+      </c>
+      <c r="I37" s="150" t="s">
+        <v>456</v>
+      </c>
+      <c r="J37" s="150" t="s">
+        <v>461</v>
+      </c>
+      <c r="K37" s="150" t="s">
+        <v>450</v>
+      </c>
+      <c r="L37" s="145" t="s">
+        <v>518</v>
+      </c>
+      <c r="M37" s="146"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="152">
+        <v>23</v>
+      </c>
+      <c r="C38" s="150" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145" t="s">
+        <v>511</v>
+      </c>
+      <c r="G38" s="146"/>
+      <c r="H38" s="152">
+        <v>24</v>
+      </c>
+      <c r="I38" s="150" t="s">
+        <v>457</v>
+      </c>
+      <c r="J38" s="150" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" s="150" t="s">
+        <v>451</v>
+      </c>
+      <c r="L38" s="145" t="s">
+        <v>519</v>
+      </c>
+      <c r="M38" s="146"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="152">
+        <v>25</v>
+      </c>
+      <c r="C39" s="150" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="146"/>
+      <c r="H39" s="152">
+        <v>26</v>
+      </c>
+      <c r="I39" s="150" t="s">
+        <v>431</v>
+      </c>
+      <c r="J39" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K39" s="114"/>
+      <c r="L39" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M39" s="146"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="152">
+        <v>27</v>
+      </c>
+      <c r="C40" s="150" t="s">
+        <v>433</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145" t="s">
+        <v>512</v>
+      </c>
+      <c r="G40" s="146"/>
+      <c r="H40" s="152">
+        <v>28</v>
+      </c>
+      <c r="I40" s="150" t="s">
+        <v>439</v>
+      </c>
+      <c r="J40" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K40" s="114"/>
+      <c r="L40" s="145" t="s">
+        <v>522</v>
+      </c>
+      <c r="M40" s="146"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="152">
+        <v>29</v>
+      </c>
+      <c r="C41" s="150" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145" t="s">
+        <v>513</v>
+      </c>
+      <c r="G41" s="146"/>
+      <c r="H41" s="152">
+        <v>30</v>
+      </c>
+      <c r="I41" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="J41" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="K41" s="114"/>
+      <c r="L41" s="145" t="s">
+        <v>523</v>
+      </c>
+      <c r="M41" s="146"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="152">
+        <v>31</v>
+      </c>
+      <c r="C42" s="150" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145" t="s">
+        <v>514</v>
+      </c>
+      <c r="G42" s="146"/>
+      <c r="H42" s="152">
+        <v>32</v>
+      </c>
+      <c r="I42" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="J42" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="K42" s="114"/>
+      <c r="L42" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="M42" s="146"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="152">
+        <v>33</v>
+      </c>
+      <c r="C43" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145" t="s">
+        <v>515</v>
+      </c>
+      <c r="G43" s="146"/>
+      <c r="H43" s="152">
+        <v>34</v>
+      </c>
+      <c r="I43" s="150" t="s">
+        <v>414</v>
+      </c>
+      <c r="J43" s="150" t="s">
+        <v>414</v>
+      </c>
+      <c r="K43" s="150" t="s">
+        <v>452</v>
+      </c>
+      <c r="L43" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M43" s="146"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="152">
+        <v>35</v>
+      </c>
+      <c r="C44" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="D44" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145" t="s">
+        <v>516</v>
+      </c>
+      <c r="G44" s="146"/>
+      <c r="H44" s="152">
+        <v>36</v>
+      </c>
+      <c r="I44" s="150" t="s">
+        <v>420</v>
+      </c>
+      <c r="J44" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K44" s="114"/>
+      <c r="L44" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M44" s="146"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="152">
+        <v>37</v>
+      </c>
+      <c r="C45" s="150" t="s">
+        <v>436</v>
+      </c>
+      <c r="D45" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="146"/>
+      <c r="H45" s="152">
+        <v>38</v>
+      </c>
+      <c r="I45" s="150" t="s">
         <v>423</v>
       </c>
-      <c r="D29" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="153">
-        <v>6</v>
-      </c>
-      <c r="G29" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="H29" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I29" s="115"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="153">
-        <v>7</v>
-      </c>
-      <c r="C30" s="151" t="s">
-        <v>424</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="153">
-        <v>8</v>
-      </c>
-      <c r="G30" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="H30" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I30" s="115"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="153">
-        <v>9</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="153">
-        <v>10</v>
-      </c>
-      <c r="G31" s="151" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I31" s="115"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="153">
-        <v>11</v>
-      </c>
-      <c r="C32" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="D32" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E32" s="147"/>
-      <c r="F32" s="153">
-        <v>12</v>
-      </c>
-      <c r="G32" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="H32" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I32" s="115"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="153">
-        <v>13</v>
-      </c>
-      <c r="C33" s="151" t="s">
-        <v>456</v>
-      </c>
-      <c r="D33" s="151" t="s">
-        <v>450</v>
-      </c>
-      <c r="E33" s="150" t="s">
-        <v>461</v>
-      </c>
-      <c r="F33" s="153">
-        <v>14</v>
-      </c>
-      <c r="G33" s="151" t="s">
-        <v>411</v>
-      </c>
-      <c r="H33" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I33" s="115"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="153">
-        <v>15</v>
-      </c>
-      <c r="C34" s="151" t="s">
-        <v>418</v>
-      </c>
-      <c r="D34" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E34" s="147"/>
-      <c r="F34" s="153">
-        <v>16</v>
-      </c>
-      <c r="G34" s="151" t="s">
-        <v>412</v>
-      </c>
-      <c r="H34" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I34" s="115"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="153">
-        <v>17</v>
-      </c>
-      <c r="C35" s="151" t="s">
-        <v>427</v>
-      </c>
-      <c r="D35" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="153">
-        <v>18</v>
-      </c>
-      <c r="G35" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="H35" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I35" s="115"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="153">
-        <v>19</v>
-      </c>
-      <c r="C36" s="151" t="s">
-        <v>430</v>
-      </c>
-      <c r="D36" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E36" s="147"/>
-      <c r="F36" s="153">
-        <v>20</v>
-      </c>
-      <c r="G36" s="151" t="s">
-        <v>435</v>
-      </c>
-      <c r="H36" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I36" s="115"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="153">
-        <v>21</v>
-      </c>
-      <c r="C37" s="151" t="s">
-        <v>431</v>
-      </c>
-      <c r="D37" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E37" s="147"/>
-      <c r="F37" s="153">
-        <v>22</v>
-      </c>
-      <c r="G37" s="151" t="s">
-        <v>457</v>
-      </c>
-      <c r="H37" s="151" t="s">
-        <v>462</v>
-      </c>
-      <c r="I37" s="150" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="153">
-        <v>23</v>
-      </c>
-      <c r="C38" s="151" t="s">
-        <v>432</v>
-      </c>
-      <c r="D38" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E38" s="147"/>
-      <c r="F38" s="153">
-        <v>24</v>
-      </c>
-      <c r="G38" s="151" t="s">
-        <v>458</v>
-      </c>
-      <c r="H38" s="151" t="s">
-        <v>463</v>
-      </c>
-      <c r="I38" s="150" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="153">
-        <v>25</v>
-      </c>
-      <c r="C39" s="151" t="s">
-        <v>430</v>
-      </c>
-      <c r="D39" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E39" s="147"/>
-      <c r="F39" s="153">
-        <v>26</v>
-      </c>
-      <c r="G39" s="151" t="s">
-        <v>431</v>
-      </c>
-      <c r="H39" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I39" s="115"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="153">
-        <v>27</v>
-      </c>
-      <c r="C40" s="151" t="s">
-        <v>433</v>
-      </c>
-      <c r="D40" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E40" s="147"/>
-      <c r="F40" s="153">
-        <v>28</v>
-      </c>
-      <c r="G40" s="151" t="s">
-        <v>439</v>
-      </c>
-      <c r="H40" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I40" s="115"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="153">
-        <v>29</v>
-      </c>
-      <c r="C41" s="151" t="s">
-        <v>434</v>
-      </c>
-      <c r="D41" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E41" s="147"/>
-      <c r="F41" s="153">
-        <v>30</v>
-      </c>
-      <c r="G41" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="H41" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="I41" s="115"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="153">
-        <v>31</v>
-      </c>
-      <c r="C42" s="151" t="s">
-        <v>435</v>
-      </c>
-      <c r="D42" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E42" s="147"/>
-      <c r="F42" s="153">
-        <v>32</v>
-      </c>
-      <c r="G42" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H42" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="I42" s="115"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="153">
-        <v>33</v>
-      </c>
-      <c r="C43" s="151" t="s">
-        <v>407</v>
-      </c>
-      <c r="D43" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E43" s="147"/>
-      <c r="F43" s="153">
-        <v>34</v>
-      </c>
-      <c r="G43" s="151" t="s">
-        <v>414</v>
-      </c>
-      <c r="H43" s="151" t="s">
-        <v>414</v>
-      </c>
-      <c r="I43" s="150" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="153">
-        <v>35</v>
-      </c>
-      <c r="C44" s="151" t="s">
-        <v>413</v>
-      </c>
-      <c r="D44" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E44" s="147"/>
-      <c r="F44" s="153">
-        <v>36</v>
-      </c>
-      <c r="G44" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H44" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I44" s="115"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="153">
-        <v>37</v>
-      </c>
-      <c r="C45" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="D45" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E45" s="147"/>
-      <c r="F45" s="153">
-        <v>38</v>
-      </c>
-      <c r="G45" s="151" t="s">
-        <v>423</v>
-      </c>
-      <c r="H45" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="I45" s="115"/>
-    </row>
-    <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="154">
+      <c r="J45" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" s="114"/>
+      <c r="L45" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="M45" s="146"/>
+    </row>
+    <row r="46" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="153">
         <v>39</v>
       </c>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="D46" s="148" t="s">
-        <v>444</v>
-      </c>
-      <c r="E46" s="149"/>
-      <c r="F46" s="154">
+      <c r="D46" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="148"/>
+      <c r="H46" s="153">
         <v>40</v>
       </c>
-      <c r="G46" s="152" t="s">
+      <c r="I46" s="151" t="s">
         <v>441</v>
       </c>
-      <c r="H46" s="148" t="s">
-        <v>444</v>
-      </c>
-      <c r="I46" s="117"/>
+      <c r="J46" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46" s="116"/>
+      <c r="L46" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="M46" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
+++ b/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="469">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1862,6 +1862,14 @@
   </si>
   <si>
     <t>여분의 GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULL-UP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA_ON_LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2681,22 +2689,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,182 +2854,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3254,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3305,10 +3313,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -3336,10 +3344,10 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -3369,10 +3377,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="137"/>
+      <c r="C5" s="198"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -3404,10 +3412,10 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="198"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3431,10 +3439,10 @@
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="139"/>
+      <c r="C7" s="200"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3583,86 +3591,86 @@
     </row>
     <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="187"/>
+      <c r="D14" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="145" t="s">
+      <c r="F14" s="188"/>
+      <c r="G14" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146" t="s">
+      <c r="H14" s="179"/>
+      <c r="I14" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="146"/>
+      <c r="J14" s="179"/>
       <c r="K14" s="41"/>
       <c r="L14" s="24"/>
-      <c r="N14" s="145" t="s">
+      <c r="N14" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="146"/>
-      <c r="P14" s="147" t="s">
+      <c r="O14" s="179"/>
+      <c r="P14" s="180" t="s">
         <v>444</v>
       </c>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="149"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="181"/>
+      <c r="S14" s="182"/>
     </row>
     <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="139" t="s">
         <v>448</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="159" t="s">
+      <c r="D15" s="192"/>
+      <c r="E15" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="140" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="159" t="s">
+      <c r="H15" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="159" t="s">
+      <c r="I15" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="159" t="s">
+      <c r="J15" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="159" t="s">
+      <c r="K15" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="161" t="s">
+      <c r="L15" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="N15" s="162" t="s">
+      <c r="N15" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="159" t="s">
+      <c r="O15" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" s="159" t="s">
+      <c r="Q15" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="159" t="s">
+      <c r="R15" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="161" t="s">
+      <c r="S15" s="140" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3676,17 +3684,17 @@
       <c r="D16" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="163" t="s">
+      <c r="E16" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="164"/>
+      <c r="F16" s="190"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="165"/>
+      <c r="M16" s="142"/>
       <c r="N16" s="37"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
@@ -3698,7 +3706,7 @@
       <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="134" t="s">
         <v>450</v>
       </c>
       <c r="D17" s="114" t="s">
@@ -3726,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="166"/>
+      <c r="M17" s="143"/>
       <c r="N17" s="18" t="s">
         <v>297</v>
       </c>
@@ -3748,7 +3756,7 @@
       <c r="B18" s="121">
         <v>3</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="134" t="s">
         <v>450</v>
       </c>
       <c r="D18" s="122" t="s">
@@ -3776,7 +3784,7 @@
         <v>38</v>
       </c>
       <c r="L18" s="13"/>
-      <c r="M18" s="166"/>
+      <c r="M18" s="143"/>
       <c r="N18" s="113" t="s">
         <v>93</v>
       </c>
@@ -3798,7 +3806,7 @@
       <c r="B19" s="121">
         <v>4</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="134" t="s">
         <v>450</v>
       </c>
       <c r="D19" s="122" t="s">
@@ -3826,7 +3834,7 @@
         <v>38</v>
       </c>
       <c r="L19" s="13"/>
-      <c r="M19" s="166"/>
+      <c r="M19" s="143"/>
       <c r="N19" s="113" t="s">
         <v>94</v>
       </c>
@@ -3848,7 +3856,7 @@
       <c r="B20" s="121">
         <v>5</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="135" t="s">
         <v>451</v>
       </c>
       <c r="D20" s="122" t="s">
@@ -3876,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="L20" s="13"/>
-      <c r="M20" s="166"/>
+      <c r="M20" s="143"/>
       <c r="N20" s="113" t="s">
         <v>98</v>
       </c>
@@ -3898,7 +3906,7 @@
       <c r="B21" s="121">
         <v>6</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="135" t="s">
         <v>451</v>
       </c>
       <c r="D21" s="122" t="s">
@@ -3926,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="L21" s="13"/>
-      <c r="M21" s="166"/>
+      <c r="M21" s="143"/>
       <c r="N21" s="113" t="s">
         <v>102</v>
       </c>
@@ -3954,10 +3962,10 @@
       <c r="D22" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="194"/>
       <c r="G22" s="56" t="s">
         <v>199</v>
       </c>
@@ -3974,7 +3982,7 @@
         <v>179</v>
       </c>
       <c r="L22" s="58"/>
-      <c r="M22" s="167"/>
+      <c r="M22" s="144"/>
       <c r="N22" s="56" t="s">
         <v>97</v>
       </c>
@@ -3996,7 +4004,7 @@
       <c r="B23" s="17">
         <v>8</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D23" s="114" t="s">
@@ -4024,7 +4032,7 @@
         <v>38</v>
       </c>
       <c r="L23" s="13"/>
-      <c r="M23" s="166"/>
+      <c r="M23" s="143"/>
       <c r="N23" s="18" t="s">
         <v>297</v>
       </c>
@@ -4046,7 +4054,7 @@
       <c r="B24" s="117">
         <v>9</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4074,7 +4082,7 @@
         <v>38</v>
       </c>
       <c r="L24" s="13"/>
-      <c r="M24" s="166"/>
+      <c r="M24" s="143"/>
       <c r="N24" s="86" t="s">
         <v>109</v>
       </c>
@@ -4096,7 +4104,7 @@
       <c r="B25" s="117">
         <v>10</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D25" s="15" t="s">
@@ -4124,7 +4132,7 @@
         <v>38</v>
       </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="166"/>
+      <c r="M25" s="143"/>
       <c r="N25" s="86" t="s">
         <v>110</v>
       </c>
@@ -4146,7 +4154,7 @@
       <c r="B26" s="117">
         <v>11</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -4174,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="L26" s="13"/>
-      <c r="M26" s="166"/>
+      <c r="M26" s="143"/>
       <c r="N26" s="86" t="s">
         <v>219</v>
       </c>
@@ -4202,17 +4210,17 @@
       <c r="D27" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="150" t="s">
+      <c r="E27" s="183" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="151"/>
+      <c r="F27" s="184"/>
       <c r="G27" s="19"/>
       <c r="H27" s="128"/>
       <c r="I27" s="128"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="29"/>
-      <c r="M27" s="166"/>
+      <c r="M27" s="143"/>
       <c r="N27" s="19"/>
       <c r="O27" s="128"/>
       <c r="P27" s="128"/>
@@ -4230,17 +4238,17 @@
       <c r="D28" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="184"/>
       <c r="G28" s="19"/>
       <c r="H28" s="128"/>
       <c r="I28" s="128"/>
       <c r="J28" s="128"/>
       <c r="K28" s="128"/>
       <c r="L28" s="29"/>
-      <c r="M28" s="166"/>
+      <c r="M28" s="143"/>
       <c r="N28" s="19"/>
       <c r="O28" s="128"/>
       <c r="P28" s="128"/>
@@ -4252,7 +4260,7 @@
       <c r="B29" s="17">
         <v>14</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D29" s="114" t="s">
@@ -4280,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="L29" s="13"/>
-      <c r="M29" s="166"/>
+      <c r="M29" s="143"/>
       <c r="N29" s="18" t="s">
         <v>297</v>
       </c>
@@ -4302,7 +4310,7 @@
       <c r="B30" s="117">
         <v>15</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4330,7 +4338,7 @@
         <v>38</v>
       </c>
       <c r="L30" s="13"/>
-      <c r="M30" s="166"/>
+      <c r="M30" s="143"/>
       <c r="N30" s="18" t="s">
         <v>297</v>
       </c>
@@ -4349,38 +4357,38 @@
       <c r="S30" s="27"/>
     </row>
     <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="168">
+      <c r="B31" s="145">
         <v>16</v>
       </c>
-      <c r="C31" s="169" t="s">
+      <c r="C31" s="146" t="s">
         <v>453</v>
       </c>
-      <c r="D31" s="170" t="s">
+      <c r="D31" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="171" t="s">
+      <c r="E31" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="172" t="s">
+      <c r="F31" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="173" t="s">
+      <c r="G31" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="H31" s="174" t="s">
+      <c r="H31" s="151" t="s">
         <v>298</v>
       </c>
-      <c r="I31" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="174" t="s">
+      <c r="I31" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="151" t="s">
         <v>38</v>
       </c>
       <c r="L31" s="25"/>
-      <c r="M31" s="175"/>
+      <c r="M31" s="152"/>
       <c r="N31" s="18" t="s">
         <v>297</v>
       </c>
@@ -4399,54 +4407,54 @@
       <c r="S31" s="27"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="180">
+      <c r="B32" s="157">
         <v>17</v>
       </c>
-      <c r="C32" s="181" t="s">
+      <c r="C32" s="158" t="s">
         <v>453</v>
       </c>
-      <c r="D32" s="182" t="s">
+      <c r="D32" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="182" t="s">
+      <c r="E32" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="183" t="s">
+      <c r="F32" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="184" t="s">
+      <c r="G32" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="H32" s="185" t="s">
+      <c r="H32" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="I32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="185" t="s">
+      <c r="I32" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="162" t="s">
         <v>38</v>
       </c>
       <c r="L32" s="24"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="184" t="s">
+      <c r="M32" s="163"/>
+      <c r="N32" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="O32" s="185" t="s">
+      <c r="O32" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="P32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="R32" s="185" t="s">
-        <v>38</v>
-      </c>
-      <c r="S32" s="187"/>
+      <c r="P32" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="164"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
@@ -4458,17 +4466,17 @@
       <c r="D33" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="150" t="s">
+      <c r="E33" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="151"/>
+      <c r="F33" s="184"/>
       <c r="G33" s="19"/>
       <c r="H33" s="128"/>
       <c r="I33" s="128"/>
       <c r="J33" s="128"/>
       <c r="K33" s="128"/>
       <c r="L33" s="29"/>
-      <c r="M33" s="166"/>
+      <c r="M33" s="143"/>
       <c r="N33" s="19"/>
       <c r="O33" s="128"/>
       <c r="P33" s="128"/>
@@ -4486,17 +4494,17 @@
       <c r="D34" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="150" t="s">
+      <c r="E34" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="184"/>
       <c r="G34" s="19"/>
       <c r="H34" s="128"/>
       <c r="I34" s="128"/>
       <c r="J34" s="128"/>
       <c r="K34" s="128"/>
       <c r="L34" s="29"/>
-      <c r="M34" s="166"/>
+      <c r="M34" s="143"/>
       <c r="N34" s="19"/>
       <c r="O34" s="128"/>
       <c r="P34" s="128"/>
@@ -4508,7 +4516,7 @@
       <c r="B35" s="117">
         <v>20</v>
       </c>
-      <c r="C35" s="156" t="s">
+      <c r="C35" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -4536,7 +4544,7 @@
         <v>38</v>
       </c>
       <c r="L35" s="13"/>
-      <c r="M35" s="166"/>
+      <c r="M35" s="143"/>
       <c r="N35" s="18" t="s">
         <v>297</v>
       </c>
@@ -4558,7 +4566,7 @@
       <c r="B36" s="117">
         <v>21</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -4586,7 +4594,7 @@
         <v>38</v>
       </c>
       <c r="L36" s="13"/>
-      <c r="M36" s="166"/>
+      <c r="M36" s="143"/>
       <c r="N36" s="18" t="s">
         <v>297</v>
       </c>
@@ -4608,7 +4616,7 @@
       <c r="B37" s="117">
         <v>22</v>
       </c>
-      <c r="C37" s="156" t="s">
+      <c r="C37" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -4636,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="92"/>
-      <c r="M37" s="166"/>
+      <c r="M37" s="143"/>
       <c r="N37" s="18" t="s">
         <v>297</v>
       </c>
@@ -4658,7 +4666,7 @@
       <c r="B38" s="17">
         <v>23</v>
       </c>
-      <c r="C38" s="156" t="s">
+      <c r="C38" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D38" s="114" t="s">
@@ -4708,7 +4716,7 @@
       <c r="B39" s="17">
         <v>24</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D39" s="114" t="s">
@@ -4736,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="L39" s="13"/>
-      <c r="M39" s="166"/>
+      <c r="M39" s="143"/>
       <c r="N39" s="18" t="s">
         <v>297</v>
       </c>
@@ -4758,7 +4766,7 @@
       <c r="B40" s="17">
         <v>25</v>
       </c>
-      <c r="C40" s="156" t="s">
+      <c r="C40" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D40" s="114" t="s">
@@ -4786,7 +4794,7 @@
         <v>182</v>
       </c>
       <c r="L40" s="44"/>
-      <c r="M40" s="166" t="s">
+      <c r="M40" s="143" t="s">
         <v>231</v>
       </c>
       <c r="N40" s="18" t="s">
@@ -4810,7 +4818,7 @@
       <c r="B41" s="17">
         <v>26</v>
       </c>
-      <c r="C41" s="156" t="s">
+      <c r="C41" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D41" s="114" t="s">
@@ -4838,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="L41" s="44"/>
-      <c r="M41" s="166"/>
+      <c r="M41" s="143"/>
       <c r="N41" s="18" t="s">
         <v>297</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="B42" s="17">
         <v>27</v>
       </c>
-      <c r="C42" s="156" t="s">
+      <c r="C42" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D42" s="114" t="s">
@@ -4888,7 +4896,7 @@
       <c r="L42" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="M42" s="188" t="s">
+      <c r="M42" s="165" t="s">
         <v>299</v>
       </c>
       <c r="N42" s="18" t="s">
@@ -4912,7 +4920,7 @@
       <c r="B43" s="17">
         <v>28</v>
       </c>
-      <c r="C43" s="157" t="s">
+      <c r="C43" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D43" s="114" t="s">
@@ -4940,7 +4948,7 @@
         <v>38</v>
       </c>
       <c r="L43" s="13"/>
-      <c r="M43" s="166"/>
+      <c r="M43" s="143"/>
       <c r="N43" s="111" t="s">
         <v>457</v>
       </c>
@@ -4962,7 +4970,7 @@
       <c r="B44" s="17">
         <v>29</v>
       </c>
-      <c r="C44" s="157" t="s">
+      <c r="C44" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D44" s="114" t="s">
@@ -4990,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="L44" s="13"/>
-      <c r="M44" s="166"/>
+      <c r="M44" s="143"/>
       <c r="N44" s="111" t="s">
         <v>458</v>
       </c>
@@ -5012,7 +5020,7 @@
       <c r="B45" s="17">
         <v>30</v>
       </c>
-      <c r="C45" s="157" t="s">
+      <c r="C45" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D45" s="114" t="s">
@@ -5040,7 +5048,7 @@
         <v>38</v>
       </c>
       <c r="L45" s="13"/>
-      <c r="M45" s="166"/>
+      <c r="M45" s="143"/>
       <c r="N45" s="112" t="s">
         <v>459</v>
       </c>
@@ -5070,17 +5078,17 @@
       <c r="D46" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="150" t="s">
+      <c r="E46" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="151"/>
+      <c r="F46" s="184"/>
       <c r="G46" s="19"/>
       <c r="H46" s="128"/>
       <c r="I46" s="128"/>
       <c r="J46" s="128"/>
       <c r="K46" s="128"/>
       <c r="L46" s="29"/>
-      <c r="M46" s="166"/>
+      <c r="M46" s="143"/>
       <c r="N46" s="19"/>
       <c r="O46" s="128"/>
       <c r="P46" s="128"/>
@@ -5098,17 +5106,17 @@
       <c r="D47" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="152" t="s">
+      <c r="E47" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="153"/>
+      <c r="F47" s="186"/>
       <c r="G47" s="20"/>
       <c r="H47" s="129"/>
       <c r="I47" s="129"/>
       <c r="J47" s="129"/>
       <c r="K47" s="129"/>
       <c r="L47" s="43"/>
-      <c r="M47" s="175"/>
+      <c r="M47" s="152"/>
       <c r="N47" s="20"/>
       <c r="O47" s="129"/>
       <c r="P47" s="129"/>
@@ -5117,38 +5125,38 @@
       <c r="S47" s="43"/>
     </row>
     <row r="48" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="180">
+      <c r="B48" s="157">
         <v>33</v>
       </c>
-      <c r="C48" s="195" t="s">
+      <c r="C48" s="172" t="s">
         <v>451</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="196" t="s">
+      <c r="E48" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="197" t="s">
+      <c r="F48" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="198" t="s">
+      <c r="G48" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="199" t="s">
+      <c r="H48" s="176" t="s">
         <v>239</v>
       </c>
-      <c r="I48" s="199" t="s">
+      <c r="I48" s="176" t="s">
         <v>216</v>
       </c>
-      <c r="J48" s="199" t="s">
+      <c r="J48" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="K48" s="199" t="s">
+      <c r="K48" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="200"/>
-      <c r="M48" s="186" t="s">
+      <c r="L48" s="177"/>
+      <c r="M48" s="163" t="s">
         <v>229</v>
       </c>
       <c r="N48" s="111" t="s">
@@ -5174,7 +5182,7 @@
       <c r="B49" s="17">
         <v>34</v>
       </c>
-      <c r="C49" s="157" t="s">
+      <c r="C49" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D49" s="114" t="s">
@@ -5202,7 +5210,7 @@
         <v>38</v>
       </c>
       <c r="L49" s="13"/>
-      <c r="M49" s="166"/>
+      <c r="M49" s="143"/>
       <c r="N49" s="111" t="s">
         <v>461</v>
       </c>
@@ -5226,7 +5234,7 @@
       <c r="B50" s="17">
         <v>35</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D50" s="114" t="s">
@@ -5254,7 +5262,7 @@
         <v>38</v>
       </c>
       <c r="L50" s="13"/>
-      <c r="M50" s="166"/>
+      <c r="M50" s="143"/>
       <c r="N50" s="111" t="s">
         <v>460</v>
       </c>
@@ -5278,7 +5286,7 @@
       <c r="B51" s="17">
         <v>36</v>
       </c>
-      <c r="C51" s="157" t="s">
+      <c r="C51" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D51" s="114" t="s">
@@ -5308,7 +5316,7 @@
       <c r="L51" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="M51" s="166" t="s">
+      <c r="M51" s="143" t="s">
         <v>230</v>
       </c>
       <c r="N51" s="18" t="s">
@@ -5332,7 +5340,7 @@
       <c r="B52" s="17">
         <v>37</v>
       </c>
-      <c r="C52" s="157" t="s">
+      <c r="C52" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D52" s="114" t="s">
@@ -5360,7 +5368,7 @@
         <v>38</v>
       </c>
       <c r="L52" s="13"/>
-      <c r="M52" s="166"/>
+      <c r="M52" s="143"/>
       <c r="N52" s="18" t="s">
         <v>297</v>
       </c>
@@ -5382,7 +5390,7 @@
       <c r="B53" s="17">
         <v>38</v>
       </c>
-      <c r="C53" s="157" t="s">
+      <c r="C53" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D53" s="114" t="s">
@@ -5412,7 +5420,7 @@
       <c r="L53" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="M53" s="166" t="s">
+      <c r="M53" s="143" t="s">
         <v>231</v>
       </c>
       <c r="N53" s="18" t="s">
@@ -5436,7 +5444,7 @@
       <c r="B54" s="17">
         <v>39</v>
       </c>
-      <c r="C54" s="157" t="s">
+      <c r="C54" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D54" s="114" t="s">
@@ -5464,7 +5472,7 @@
         <v>38</v>
       </c>
       <c r="L54" s="13"/>
-      <c r="M54" s="166"/>
+      <c r="M54" s="143"/>
       <c r="N54" s="18" t="s">
         <v>297</v>
       </c>
@@ -5486,7 +5494,7 @@
       <c r="B55" s="17">
         <v>40</v>
       </c>
-      <c r="C55" s="157" t="s">
+      <c r="C55" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D55" s="114" t="s">
@@ -5514,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="L55" s="13"/>
-      <c r="M55" s="166"/>
+      <c r="M55" s="143"/>
       <c r="N55" s="18" t="s">
         <v>297</v>
       </c>
@@ -5536,7 +5544,7 @@
       <c r="B56" s="118">
         <v>41</v>
       </c>
-      <c r="C56" s="157" t="s">
+      <c r="C56" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D56" s="22" t="s">
@@ -5564,7 +5572,7 @@
         <v>20</v>
       </c>
       <c r="L56" s="92"/>
-      <c r="M56" s="166"/>
+      <c r="M56" s="143"/>
       <c r="N56" s="90" t="s">
         <v>205</v>
       </c>
@@ -5586,7 +5594,7 @@
       <c r="B57" s="51">
         <v>42</v>
       </c>
-      <c r="C57" s="157" t="s">
+      <c r="C57" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D57" s="48" t="s">
@@ -5614,7 +5622,7 @@
         <v>192</v>
       </c>
       <c r="L57" s="52"/>
-      <c r="M57" s="166"/>
+      <c r="M57" s="143"/>
       <c r="N57" s="53" t="s">
         <v>202</v>
       </c>
@@ -5636,7 +5644,7 @@
       <c r="B58" s="51">
         <v>43</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D58" s="48" t="s">
@@ -5664,7 +5672,7 @@
         <v>192</v>
       </c>
       <c r="L58" s="52"/>
-      <c r="M58" s="166"/>
+      <c r="M58" s="143"/>
       <c r="N58" s="53" t="s">
         <v>203</v>
       </c>
@@ -5686,7 +5694,7 @@
       <c r="B59" s="118">
         <v>44</v>
       </c>
-      <c r="C59" s="157" t="s">
+      <c r="C59" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D59" s="22" t="s">
@@ -5714,7 +5722,7 @@
         <v>20</v>
       </c>
       <c r="L59" s="92"/>
-      <c r="M59" s="166"/>
+      <c r="M59" s="143"/>
       <c r="N59" s="90" t="s">
         <v>206</v>
       </c>
@@ -5736,7 +5744,7 @@
       <c r="B60" s="17">
         <v>45</v>
       </c>
-      <c r="C60" s="157" t="s">
+      <c r="C60" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D60" s="114" t="s">
@@ -5764,7 +5772,7 @@
         <v>20</v>
       </c>
       <c r="L60" s="87"/>
-      <c r="M60" s="166"/>
+      <c r="M60" s="143"/>
       <c r="N60" s="18" t="s">
         <v>297</v>
       </c>
@@ -5786,7 +5794,7 @@
       <c r="B61" s="57">
         <v>46</v>
       </c>
-      <c r="C61" s="157" t="s">
+      <c r="C61" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D61" s="127" t="s">
@@ -5814,7 +5822,7 @@
         <v>192</v>
       </c>
       <c r="L61" s="58"/>
-      <c r="M61" s="166"/>
+      <c r="M61" s="143"/>
       <c r="N61" s="56" t="s">
         <v>59</v>
       </c>
@@ -5842,17 +5850,17 @@
       <c r="D62" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="E62" s="150" t="s">
+      <c r="E62" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="151"/>
+      <c r="F62" s="184"/>
       <c r="G62" s="19"/>
       <c r="H62" s="128"/>
       <c r="I62" s="128"/>
       <c r="J62" s="128"/>
       <c r="K62" s="128"/>
       <c r="L62" s="29"/>
-      <c r="M62" s="166"/>
+      <c r="M62" s="143"/>
       <c r="N62" s="19"/>
       <c r="O62" s="128"/>
       <c r="P62" s="128"/>
@@ -5870,17 +5878,17 @@
       <c r="D63" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="152" t="s">
+      <c r="E63" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="153"/>
+      <c r="F63" s="186"/>
       <c r="G63" s="20"/>
       <c r="H63" s="129"/>
       <c r="I63" s="129"/>
       <c r="J63" s="129"/>
       <c r="K63" s="129"/>
       <c r="L63" s="43"/>
-      <c r="M63" s="175"/>
+      <c r="M63" s="152"/>
       <c r="N63" s="20"/>
       <c r="O63" s="129"/>
       <c r="P63" s="129"/>
@@ -5889,59 +5897,59 @@
       <c r="S63" s="43"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="189">
+      <c r="B64" s="166">
         <v>49</v>
       </c>
-      <c r="C64" s="179" t="s">
+      <c r="C64" s="156" t="s">
         <v>451</v>
       </c>
-      <c r="D64" s="190" t="s">
+      <c r="D64" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="190" t="s">
+      <c r="E64" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="F64" s="191" t="s">
+      <c r="F64" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="192" t="s">
+      <c r="G64" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="H64" s="190" t="s">
+      <c r="H64" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="I64" s="190" t="s">
+      <c r="I64" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="J64" s="190" t="s">
+      <c r="J64" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="K64" s="193" t="s">
+      <c r="K64" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="L64" s="194"/>
-      <c r="N64" s="192" t="s">
+      <c r="L64" s="171"/>
+      <c r="N64" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="O64" s="190" t="s">
+      <c r="O64" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="P64" s="190" t="s">
+      <c r="P64" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="Q64" s="190" t="s">
+      <c r="Q64" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="R64" s="193" t="s">
+      <c r="R64" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="S64" s="194"/>
+      <c r="S64" s="171"/>
     </row>
     <row r="65" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
         <v>50</v>
       </c>
-      <c r="C65" s="157" t="s">
+      <c r="C65" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -5990,7 +5998,7 @@
       <c r="B66" s="17">
         <v>51</v>
       </c>
-      <c r="C66" s="157" t="s">
+      <c r="C66" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D66" s="108" t="s">
@@ -6039,7 +6047,7 @@
       <c r="B67" s="17">
         <v>52</v>
       </c>
-      <c r="C67" s="157" t="s">
+      <c r="C67" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D67" s="108" t="s">
@@ -6088,7 +6096,7 @@
       <c r="B68" s="17">
         <v>53</v>
       </c>
-      <c r="C68" s="157" t="s">
+      <c r="C68" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D68" s="114" t="s">
@@ -6137,7 +6145,7 @@
       <c r="B69" s="17">
         <v>54</v>
       </c>
-      <c r="C69" s="157" t="s">
+      <c r="C69" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -6186,7 +6194,7 @@
       <c r="B70" s="17">
         <v>55</v>
       </c>
-      <c r="C70" s="157" t="s">
+      <c r="C70" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D70" s="114" t="s">
@@ -6235,7 +6243,7 @@
       <c r="B71" s="17">
         <v>56</v>
       </c>
-      <c r="C71" s="157" t="s">
+      <c r="C71" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -6284,7 +6292,7 @@
       <c r="B72" s="17">
         <v>57</v>
       </c>
-      <c r="C72" s="157" t="s">
+      <c r="C72" s="137" t="s">
         <v>451</v>
       </c>
       <c r="D72" s="10" t="s">
@@ -6333,7 +6341,7 @@
       <c r="B73" s="17">
         <v>58</v>
       </c>
-      <c r="C73" s="157" t="s">
+      <c r="C73" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -6384,7 +6392,7 @@
       <c r="B74" s="117">
         <v>59</v>
       </c>
-      <c r="C74" s="157" t="s">
+      <c r="C74" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D74" s="15" t="s">
@@ -6412,22 +6420,22 @@
         <v>38</v>
       </c>
       <c r="L74" s="13"/>
-      <c r="N74" s="176" t="s">
+      <c r="N74" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="O74" s="177" t="s">
+      <c r="O74" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="P74" s="177" t="s">
+      <c r="P74" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="Q74" s="177" t="s">
+      <c r="Q74" s="154" t="s">
         <v>390</v>
       </c>
-      <c r="R74" s="177" t="s">
+      <c r="R74" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="178" t="s">
+      <c r="S74" s="155" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6441,10 +6449,10 @@
       <c r="D75" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="150" t="s">
+      <c r="E75" s="183" t="s">
         <v>168</v>
       </c>
-      <c r="F75" s="151"/>
+      <c r="F75" s="184"/>
       <c r="G75" s="19" t="s">
         <v>217</v>
       </c>
@@ -6470,7 +6478,7 @@
       <c r="B76" s="117">
         <v>61</v>
       </c>
-      <c r="C76" s="157" t="s">
+      <c r="C76" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D76" s="15" t="s">
@@ -6507,7 +6515,7 @@
         <v>18</v>
       </c>
       <c r="O76" s="45" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="P76" s="45" t="s">
         <v>395</v>
@@ -6524,7 +6532,7 @@
       <c r="B77" s="17">
         <v>62</v>
       </c>
-      <c r="C77" s="157" t="s">
+      <c r="C77" s="137" t="s">
         <v>455</v>
       </c>
       <c r="D77" s="108" t="s">
@@ -6559,20 +6567,18 @@
         <v>18</v>
       </c>
       <c r="O77" s="45" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="P77" s="45" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="Q77" s="45" t="s">
         <v>386</v>
       </c>
       <c r="R77" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="S77" s="88" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="S77" s="88"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B78" s="19">
@@ -6584,10 +6590,10 @@
       <c r="D78" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E78" s="150" t="s">
+      <c r="E78" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="151"/>
+      <c r="F78" s="184"/>
       <c r="G78" s="19"/>
       <c r="H78" s="39"/>
       <c r="I78" s="39"/>
@@ -6611,10 +6617,10 @@
       <c r="D79" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="152" t="s">
+      <c r="E79" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="F79" s="153"/>
+      <c r="F79" s="186"/>
       <c r="G79" s="20"/>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
@@ -6679,6 +6685,15 @@
   </sheetData>
   <autoFilter ref="B15:S79"/>
   <mergeCells count="25">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="E78:F78"/>
@@ -6695,15 +6710,6 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7362,7 +7368,7 @@
   <dimension ref="B2:P46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
+++ b/1_LF_Generator_MCU/Plasma_LF_MCU_PinMap_20180117.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="555">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,10 +1297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cuurent Transducer Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,10 +1318,6 @@
   </si>
   <si>
     <t>Main PCB ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+5V 4.7K Pull-up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2030,10 +2022,6 @@
   </si>
   <si>
     <t>KEY_OP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H/W Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2187,6 +2175,46 @@
   </si>
   <si>
     <t>TIM3_CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Transducer Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power 별 Plasma limit 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W Version V1.0 : 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본은 GPIO INPUT으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Pulse 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS-232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V 4.7K Pull-up Origin : High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power On 시 무조건 ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma On시 ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,7 +2225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2257,13 +2285,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2763,7 +2784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2902,9 +2923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2973,21 +2991,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3048,13 +3057,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3090,7 +3096,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3144,9 +3150,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,78 +3450,93 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3537,23 +3555,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3588,8 +3612,8 @@
       <xdr:rowOff>107538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133628</xdr:rowOff>
     </xdr:to>
@@ -4097,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4108,19 +4132,19 @@
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="44.625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4131,13 +4155,13 @@
     </row>
     <row r="2" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -4148,10 +4172,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="256"/>
+      <c r="C3" s="244"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4179,10 +4203,10 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="258"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4198,7 +4222,7 @@
         <v>48000000</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>76</v>
@@ -4212,10 +4236,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="258"/>
+      <c r="C5" s="246"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4226,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H5" s="30">
         <f>H3*1</f>
@@ -4247,10 +4271,10 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="258"/>
+      <c r="C6" s="246"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4274,10 +4298,10 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="260"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -4291,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>77</v>
@@ -4305,14 +4329,14 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E8" s="91" t="s">
-        <v>381</v>
+      <c r="E8" s="87" t="s">
+        <v>379</v>
       </c>
       <c r="F8" s="5">
         <v>8</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H8" s="3">
         <v>80000</v>
@@ -4327,21 +4351,21 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E9" s="91" t="s">
-        <v>382</v>
+      <c r="E9" s="87" t="s">
+        <v>380</v>
       </c>
       <c r="F9" s="5">
         <v>8</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H9" s="32">
         <f>H6/H8-1</f>
         <v>199</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>79</v>
@@ -4355,14 +4379,14 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E10" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="F10" s="85">
+      <c r="E10" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="81">
         <v>20</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H10" s="3">
         <v>50</v>
@@ -4377,14 +4401,14 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E11" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="F11" s="85">
+      <c r="E11" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="81">
         <v>1</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H11" s="32">
         <f>H10*H9/100</f>
@@ -4401,14 +4425,14 @@
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="81">
         <v>1</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H12" s="4">
         <f>1/H8</f>
@@ -4426,90 +4450,90 @@
     </row>
     <row r="13" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247" t="s">
+      <c r="C14" s="239"/>
+      <c r="D14" s="239" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="247" t="s">
+      <c r="E14" s="239" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="248"/>
-      <c r="G14" s="237" t="s">
+      <c r="F14" s="259"/>
+      <c r="G14" s="249" t="s">
+        <v>413</v>
+      </c>
+      <c r="H14" s="250"/>
+      <c r="I14" s="249" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="249" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="251"/>
+      <c r="P14" s="250" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q14" s="253"/>
+      <c r="R14" s="253"/>
+      <c r="S14" s="254"/>
+    </row>
+    <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="240"/>
+      <c r="E15" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="150" t="s">
         <v>415</v>
       </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="237" t="s">
+      <c r="H15" s="151" t="s">
         <v>416</v>
       </c>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="240"/>
-      <c r="N14" s="237" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="239"/>
-      <c r="P14" s="238" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="241"/>
-      <c r="S14" s="242"/>
-    </row>
-    <row r="15" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>387</v>
-      </c>
-      <c r="D15" s="252"/>
-      <c r="E15" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="156" t="s">
+      <c r="I15" s="152" t="s">
         <v>417</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="J15" s="153" t="s">
+        <v>415</v>
+      </c>
+      <c r="K15" s="153" t="s">
         <v>418</v>
       </c>
-      <c r="I15" s="158" t="s">
+      <c r="L15" s="153" t="s">
         <v>419</v>
       </c>
-      <c r="J15" s="159" t="s">
-        <v>417</v>
-      </c>
-      <c r="K15" s="159" t="s">
+      <c r="M15" s="154" t="s">
         <v>420</v>
       </c>
-      <c r="L15" s="159" t="s">
-        <v>421</v>
-      </c>
-      <c r="M15" s="160" t="s">
-        <v>422</v>
-      </c>
-      <c r="N15" s="128" t="s">
+      <c r="N15" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="126" t="s">
+      <c r="O15" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="126" t="s">
+      <c r="P15" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="126" t="s">
+      <c r="Q15" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="126" t="s">
+      <c r="R15" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="127" t="s">
+      <c r="S15" s="122" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4518,37 +4542,37 @@
         <v>1</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="249" t="s">
+      <c r="E16" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="250"/>
+      <c r="F16" s="237"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="164"/>
+      <c r="M16" s="158"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
-      <c r="S16" s="55"/>
+      <c r="S16" s="54"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
         <v>2</v>
       </c>
-      <c r="C17" s="121" t="s">
-        <v>389</v>
-      </c>
-      <c r="D17" s="103" t="s">
+      <c r="C17" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -4558,10 +4582,10 @@
         <v>95</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="H17" s="165" t="s">
-        <v>424</v>
+        <v>421</v>
+      </c>
+      <c r="H17" s="159" t="s">
+        <v>422</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>36</v>
@@ -4592,26 +4616,26 @@
       <c r="S17" s="26"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="109">
+      <c r="B18" s="104">
         <v>3</v>
       </c>
-      <c r="C18" s="121" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="105" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="107" t="s">
+      <c r="F18" s="102" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H18" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H18" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>36</v>
@@ -4624,44 +4648,44 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="102" t="s">
+      <c r="N18" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="O18" s="99" t="s">
+      <c r="O18" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="P18" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="R18" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="100"/>
+      <c r="P18" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="R18" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="96"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="109">
+      <c r="B19" s="104">
         <v>4</v>
       </c>
-      <c r="C19" s="121" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="110" t="s">
+      <c r="C19" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="105" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="107" t="s">
+      <c r="F19" s="102" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H19" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>36</v>
@@ -4674,44 +4698,44 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="102" t="s">
+      <c r="N19" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="99" t="s">
+      <c r="O19" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="P19" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="R19" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="100"/>
+      <c r="P19" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="R19" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="96"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="109">
+      <c r="B20" s="104">
         <v>5</v>
       </c>
-      <c r="C20" s="122" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" s="110" t="s">
+      <c r="C20" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="107" t="s">
+      <c r="F20" s="102" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H20" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>36</v>
@@ -4724,44 +4748,44 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="99" t="s">
+      <c r="O20" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="P20" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="R20" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="S20" s="100"/>
+      <c r="P20" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="R20" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="96"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="109">
+      <c r="B21" s="104">
         <v>6</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="110" t="s">
+      <c r="C21" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="107" t="s">
+      <c r="F21" s="102" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H21" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H21" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>36</v>
@@ -4774,79 +4798,79 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="102" t="s">
+      <c r="N21" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="99" t="s">
+      <c r="O21" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="P21" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="R21" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="100"/>
+      <c r="P21" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="R21" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="96"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="52">
+      <c r="B22" s="51">
         <v>7</v>
       </c>
-      <c r="C22" s="115" t="s">
-        <v>391</v>
-      </c>
-      <c r="D22" s="115" t="s">
+      <c r="C22" s="110" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="253" t="s">
+      <c r="E22" s="241" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="254"/>
-      <c r="G22" s="78" t="s">
+      <c r="F22" s="242"/>
+      <c r="G22" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="161" t="s">
+        <v>425</v>
+      </c>
+      <c r="J22" s="162" t="s">
+        <v>426</v>
+      </c>
+      <c r="K22" s="40" t="s">
         <v>427</v>
-      </c>
-      <c r="H22" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="J22" s="168" t="s">
-        <v>428</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>429</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="115" t="s">
+      <c r="O22" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="115" t="s">
+      <c r="Q22" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="R22" s="115" t="s">
+      <c r="R22" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="53"/>
+      <c r="S22" s="52"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>8</v>
       </c>
-      <c r="C23" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="103" t="s">
+      <c r="C23" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="99" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -4855,24 +4879,24 @@
       <c r="F23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="169" t="s">
+      <c r="G23" s="163" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="I23" s="165" t="s">
         <v>430</v>
       </c>
-      <c r="H23" s="170" t="s">
+      <c r="J23" s="166" t="s">
         <v>431</v>
       </c>
-      <c r="I23" s="171" t="s">
+      <c r="K23" s="167" t="s">
         <v>432</v>
-      </c>
-      <c r="J23" s="172" t="s">
-        <v>433</v>
-      </c>
-      <c r="K23" s="173" t="s">
-        <v>434</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>243</v>
@@ -4892,11 +4916,11 @@
       <c r="S23" s="26"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="105">
+      <c r="B24" s="100">
         <v>9</v>
       </c>
-      <c r="C24" s="123" t="s">
-        <v>392</v>
+      <c r="C24" s="118" t="s">
+        <v>390</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>20</v>
@@ -4907,24 +4931,24 @@
       <c r="F24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I24" s="161" t="s">
+        <v>435</v>
+      </c>
+      <c r="J24" s="162" t="s">
         <v>436</v>
       </c>
-      <c r="H24" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I24" s="167" t="s">
-        <v>437</v>
-      </c>
-      <c r="J24" s="168" t="s">
-        <v>438</v>
-      </c>
       <c r="K24" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="78" t="s">
+      <c r="N24" s="77" t="s">
         <v>103</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -4933,48 +4957,50 @@
       <c r="P24" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="Q24" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="39"/>
+      <c r="Q24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="105">
+      <c r="B25" s="100">
         <v>10</v>
       </c>
-      <c r="C25" s="123" t="s">
-        <v>392</v>
+      <c r="C25" s="118" t="s">
+        <v>390</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="99" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I25" s="167" t="s">
-        <v>439</v>
-      </c>
-      <c r="J25" s="168" t="s">
-        <v>440</v>
+      <c r="G25" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I25" s="161" t="s">
+        <v>437</v>
+      </c>
+      <c r="J25" s="162" t="s">
+        <v>438</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="78" t="s">
+      <c r="N25" s="77" t="s">
         <v>104</v>
       </c>
       <c r="O25" s="40" t="s">
@@ -4983,48 +5009,50 @@
       <c r="P25" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="Q25" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="R25" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="39"/>
+      <c r="Q25" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="105">
+      <c r="B26" s="100">
         <v>11</v>
       </c>
-      <c r="C26" s="123" t="s">
-        <v>392</v>
+      <c r="C26" s="118" t="s">
+        <v>390</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="99" t="s">
         <v>106</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H26" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I26" s="167" t="s">
-        <v>441</v>
-      </c>
-      <c r="J26" s="168" t="s">
-        <v>442</v>
+      <c r="G26" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I26" s="161" t="s">
+        <v>439</v>
+      </c>
+      <c r="J26" s="162" t="s">
+        <v>440</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="78" t="s">
+      <c r="N26" s="77" t="s">
         <v>183</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -5034,39 +5062,41 @@
         <v>306</v>
       </c>
       <c r="Q26" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="R26" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="39"/>
+        <v>545</v>
+      </c>
+      <c r="R26" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="266" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>12</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="D27" s="116" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="243" t="s">
+      <c r="E27" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="244"/>
+      <c r="F27" s="256"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="175"/>
+      <c r="H27" s="169"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
       <c r="L27" s="3"/>
       <c r="M27" s="12"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
       <c r="S27" s="28"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
@@ -5074,37 +5104,37 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="D28" s="116" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="243" t="s">
+      <c r="E28" s="255" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="244"/>
+      <c r="F28" s="256"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="175"/>
+      <c r="H28" s="169"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
       <c r="L28" s="3"/>
       <c r="M28" s="12"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
       <c r="S28" s="28"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
         <v>14</v>
       </c>
-      <c r="C29" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D29" s="103" t="s">
+      <c r="C29" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="99" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -5114,10 +5144,10 @@
         <v>111</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H29" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H29" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>36</v>
@@ -5148,11 +5178,11 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="105">
+      <c r="B30" s="100">
         <v>15</v>
       </c>
-      <c r="C30" s="123" t="s">
-        <v>392</v>
+      <c r="C30" s="118" t="s">
+        <v>390</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>64</v>
@@ -5163,115 +5193,115 @@
       <c r="F30" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="H30" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="I30" s="171" t="s">
+        <v>442</v>
+      </c>
+      <c r="J30" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="H30" s="176" t="s">
-        <v>431</v>
-      </c>
-      <c r="I30" s="177" t="s">
+      <c r="K30" s="75" t="s">
         <v>444</v>
-      </c>
-      <c r="J30" s="178" t="s">
-        <v>445</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>446</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="O30" s="170" t="s">
+        <v>542</v>
+      </c>
+      <c r="P30" s="171" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q30" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="O30" s="176" t="s">
-        <v>545</v>
-      </c>
-      <c r="P30" s="177" t="s">
+      <c r="R30" s="75" t="s">
         <v>444</v>
       </c>
-      <c r="Q30" s="178" t="s">
+      <c r="S30" s="266" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="124">
+        <v>16</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="H31" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="I31" s="171" t="s">
         <v>445</v>
       </c>
-      <c r="R30" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="129">
-        <v>16</v>
-      </c>
-      <c r="C31" s="130" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="77" t="s">
+      <c r="J31" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="H31" s="176" t="s">
-        <v>431</v>
-      </c>
-      <c r="I31" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="J31" s="178" t="s">
-        <v>445</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>446</v>
+      <c r="K31" s="75" t="s">
+        <v>444</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="O31" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="P31" s="171" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q31" s="172" t="s">
         <v>443</v>
       </c>
-      <c r="O31" s="176" t="s">
-        <v>431</v>
-      </c>
-      <c r="P31" s="177" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q31" s="178" t="s">
-        <v>445</v>
-      </c>
-      <c r="R31" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>510</v>
+      <c r="R31" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="S31" s="266" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="138">
+      <c r="B32" s="132">
         <v>17</v>
       </c>
-      <c r="C32" s="139" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" s="140" t="s">
+      <c r="C32" s="133" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="140" t="s">
+      <c r="E32" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="141" t="s">
+      <c r="F32" s="135" t="s">
         <v>114</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H32" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H32" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>36</v>
@@ -5284,49 +5314,49 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="142" t="s">
+      <c r="N32" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="O32" s="143" t="s">
+      <c r="O32" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="P32" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="S32" s="144"/>
+      <c r="P32" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="138"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <v>18</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="D33" s="116" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="243" t="s">
+      <c r="E33" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="244"/>
+      <c r="F33" s="256"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="175"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
       <c r="L33" s="3"/>
       <c r="M33" s="12"/>
       <c r="N33" s="18"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
       <c r="S33" s="28"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
@@ -5334,37 +5364,37 @@
         <v>19</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="D34" s="116" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="243" t="s">
+      <c r="E34" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="244"/>
+      <c r="F34" s="256"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="175"/>
+      <c r="H34" s="169"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
       <c r="L34" s="3"/>
       <c r="M34" s="12"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
       <c r="S34" s="28"/>
     </row>
     <row r="35" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
         <v>20</v>
       </c>
-      <c r="C35" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D35" s="103" t="s">
+      <c r="C35" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="99" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -5374,10 +5404,10 @@
         <v>116</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H35" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H35" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>36</v>
@@ -5411,23 +5441,23 @@
       <c r="B36" s="16">
         <v>21</v>
       </c>
-      <c r="C36" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D36" s="103" t="s">
+      <c r="C36" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="103" t="s">
+      <c r="E36" s="99" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H36" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H36" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>36</v>
@@ -5461,23 +5491,23 @@
       <c r="B37" s="16">
         <v>22</v>
       </c>
-      <c r="C37" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D37" s="103" t="s">
+      <c r="C37" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" s="99" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H37" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H37" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>36</v>
@@ -5490,102 +5520,106 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="270" t="s">
-        <v>542</v>
-      </c>
-      <c r="O37" s="267" t="s">
+      <c r="N37" s="234" t="s">
+        <v>539</v>
+      </c>
+      <c r="O37" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="P37" s="271" t="s">
+      <c r="P37" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="Q37" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="S37" s="269"/>
-    </row>
-    <row r="38" spans="2:19" s="119" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="Q37" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="233" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="114" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
         <v>23</v>
       </c>
-      <c r="C38" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="103" t="s">
+      <c r="C38" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D38" s="99" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F38" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="179" t="s">
+      <c r="G38" s="173" t="s">
+        <v>446</v>
+      </c>
+      <c r="H38" s="174" t="s">
+        <v>429</v>
+      </c>
+      <c r="I38" s="175" t="s">
+        <v>447</v>
+      </c>
+      <c r="J38" s="176" t="s">
         <v>448</v>
       </c>
-      <c r="H38" s="180" t="s">
-        <v>431</v>
-      </c>
-      <c r="I38" s="181" t="s">
-        <v>449</v>
-      </c>
-      <c r="J38" s="182" t="s">
-        <v>450</v>
-      </c>
-      <c r="K38" s="183" t="s">
+      <c r="K38" s="177" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="270" t="s">
-        <v>544</v>
-      </c>
-      <c r="O38" s="267" t="s">
+      <c r="N38" s="234" t="s">
+        <v>541</v>
+      </c>
+      <c r="O38" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="P38" s="271" t="s">
+      <c r="P38" s="235" t="s">
         <v>281</v>
       </c>
-      <c r="Q38" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="R38" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="S38" s="269"/>
+      <c r="Q38" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="233" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <v>24</v>
       </c>
-      <c r="C39" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D39" s="103" t="s">
+      <c r="C39" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="99" t="s">
         <v>128</v>
       </c>
       <c r="F39" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="179" t="s">
-        <v>451</v>
-      </c>
-      <c r="H39" s="180" t="s">
-        <v>431</v>
-      </c>
-      <c r="I39" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="J39" s="182" t="s">
+      <c r="G39" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="H39" s="174" t="s">
+        <v>429</v>
+      </c>
+      <c r="I39" s="175" t="s">
         <v>450</v>
       </c>
-      <c r="K39" s="183" t="s">
+      <c r="J39" s="176" t="s">
+        <v>448</v>
+      </c>
+      <c r="K39" s="177" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="3"/>
@@ -5611,36 +5645,36 @@
       <c r="B40" s="16">
         <v>25</v>
       </c>
-      <c r="C40" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D40" s="103" t="s">
+      <c r="C40" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="99" t="s">
         <v>130</v>
       </c>
       <c r="F40" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="G40" s="169" t="s">
+      <c r="G40" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="H40" s="178" t="s">
+        <v>429</v>
+      </c>
+      <c r="I40" s="165" t="s">
+        <v>452</v>
+      </c>
+      <c r="J40" s="166" t="s">
         <v>453</v>
       </c>
-      <c r="H40" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="I40" s="171" t="s">
+      <c r="K40" s="167" t="s">
+        <v>432</v>
+      </c>
+      <c r="L40" s="179"/>
+      <c r="M40" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="J40" s="172" t="s">
-        <v>455</v>
-      </c>
-      <c r="K40" s="173" t="s">
-        <v>434</v>
-      </c>
-      <c r="L40" s="185"/>
-      <c r="M40" s="12" t="s">
-        <v>456</v>
       </c>
       <c r="N40" s="17" t="s">
         <v>243</v>
@@ -5663,62 +5697,62 @@
       <c r="B41" s="16">
         <v>26</v>
       </c>
-      <c r="C41" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D41" s="103" t="s">
+      <c r="C41" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="99" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H41" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I41" s="167" t="s">
-        <v>457</v>
-      </c>
-      <c r="J41" s="168" t="s">
-        <v>458</v>
+      <c r="G41" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H41" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I41" s="161" t="s">
+        <v>455</v>
+      </c>
+      <c r="J41" s="162" t="s">
+        <v>456</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L41" s="185"/>
+        <v>432</v>
+      </c>
+      <c r="L41" s="179"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="270" t="s">
-        <v>547</v>
-      </c>
-      <c r="O41" s="267" t="s">
+      <c r="N41" s="234" t="s">
+        <v>544</v>
+      </c>
+      <c r="O41" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="P41" s="271" t="s">
+      <c r="P41" s="235" t="s">
         <v>302</v>
       </c>
-      <c r="Q41" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="R41" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="S41" s="272" t="s">
-        <v>334</v>
+      <c r="Q41" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="267" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
         <v>27</v>
       </c>
-      <c r="C42" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="D42" s="103" t="s">
+      <c r="C42" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="99" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -5727,25 +5761,25 @@
       <c r="F42" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="H42" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I42" s="177" t="s">
+      <c r="G42" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="H42" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I42" s="171" t="s">
+        <v>457</v>
+      </c>
+      <c r="J42" s="172" t="s">
+        <v>458</v>
+      </c>
+      <c r="K42" s="180" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="181" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="178" t="s">
-        <v>460</v>
-      </c>
-      <c r="K42" s="186" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="187" t="s">
-        <v>461</v>
-      </c>
-      <c r="M42" s="188"/>
+      <c r="M42" s="182"/>
       <c r="N42" s="17" t="s">
         <v>243</v>
       </c>
@@ -5767,10 +5801,10 @@
       <c r="B43" s="16">
         <v>28</v>
       </c>
-      <c r="C43" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D43" s="103" t="s">
+      <c r="C43" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" s="99" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -5780,10 +5814,10 @@
         <v>101</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H43" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H43" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>36</v>
@@ -5817,23 +5851,23 @@
       <c r="B44" s="16">
         <v>29</v>
       </c>
-      <c r="C44" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D44" s="103" t="s">
+      <c r="C44" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D44" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="99" t="s">
         <v>134</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H44" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H44" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>36</v>
@@ -5867,10 +5901,10 @@
       <c r="B45" s="16">
         <v>30</v>
       </c>
-      <c r="C45" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D45" s="103" t="s">
+      <c r="C45" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -5880,10 +5914,10 @@
         <v>101</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H45" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H45" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>36</v>
@@ -5917,120 +5951,120 @@
       <c r="B46" s="18">
         <v>31</v>
       </c>
-      <c r="C46" s="116" t="s">
-        <v>388</v>
-      </c>
-      <c r="D46" s="116" t="s">
+      <c r="C46" s="111" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="243" t="s">
+      <c r="E46" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="244"/>
+      <c r="F46" s="256"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="175"/>
+      <c r="H46" s="169"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="185"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="179"/>
       <c r="M46" s="12"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
       <c r="S46" s="28"/>
     </row>
     <row r="47" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="19">
         <v>32</v>
       </c>
-      <c r="C47" s="117" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="117" t="s">
+      <c r="C47" s="112" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="245" t="s">
+      <c r="E47" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="246"/>
+      <c r="F47" s="258"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="175"/>
+      <c r="H47" s="169"/>
       <c r="I47" s="18"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="154"/>
-      <c r="L47" s="185"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="179"/>
       <c r="M47" s="12"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
       <c r="S47" s="38"/>
     </row>
     <row r="48" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="138">
+      <c r="B48" s="132">
         <v>33</v>
       </c>
-      <c r="C48" s="151" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" s="140" t="s">
+      <c r="C48" s="145" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="152" t="s">
+      <c r="E48" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="153" t="s">
+      <c r="F48" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H48" s="174" t="s">
+      <c r="G48" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H48" s="168" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" s="161" t="s">
+        <v>461</v>
+      </c>
+      <c r="J48" s="162" t="s">
+        <v>458</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" s="183"/>
+      <c r="M48" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="I48" s="167" t="s">
-        <v>463</v>
-      </c>
-      <c r="J48" s="168" t="s">
-        <v>460</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L48" s="189"/>
-      <c r="M48" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="N48" s="101" t="s">
-        <v>398</v>
-      </c>
-      <c r="O48" s="84" t="s">
+      <c r="N48" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="O48" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="P48" s="84" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q48" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="R48" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S48" s="79" t="s">
-        <v>402</v>
+      <c r="P48" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q48" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" s="268" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
         <v>34</v>
       </c>
-      <c r="C49" s="124" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" s="103" t="s">
+      <c r="C49" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="99" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -6039,50 +6073,50 @@
       <c r="F49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H49" s="174" t="s">
-        <v>462</v>
-      </c>
-      <c r="I49" s="190" t="s">
-        <v>465</v>
-      </c>
-      <c r="J49" s="191" t="s">
-        <v>466</v>
+      <c r="G49" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H49" s="168" t="s">
+        <v>460</v>
+      </c>
+      <c r="I49" s="184" t="s">
+        <v>463</v>
+      </c>
+      <c r="J49" s="185" t="s">
+        <v>464</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L49" s="185"/>
+        <v>432</v>
+      </c>
+      <c r="L49" s="179"/>
       <c r="M49" s="12"/>
-      <c r="N49" s="101" t="s">
-        <v>397</v>
-      </c>
-      <c r="O49" s="84" t="s">
+      <c r="N49" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="P49" s="84" t="s">
+      <c r="P49" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q49" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" s="268" t="s">
         <v>400</v>
-      </c>
-      <c r="Q49" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="R49" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S49" s="79" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <v>35</v>
       </c>
-      <c r="C50" s="124" t="s">
-        <v>394</v>
-      </c>
-      <c r="D50" s="103" t="s">
+      <c r="C50" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="99" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -6091,50 +6125,50 @@
       <c r="F50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H50" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I50" s="192" t="s">
-        <v>467</v>
-      </c>
-      <c r="J50" s="191" t="s">
-        <v>468</v>
+      <c r="G50" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H50" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I50" s="186" t="s">
+        <v>465</v>
+      </c>
+      <c r="J50" s="185" t="s">
+        <v>466</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="L50" s="185"/>
+        <v>427</v>
+      </c>
+      <c r="L50" s="179"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="101" t="s">
-        <v>396</v>
-      </c>
-      <c r="O50" s="84" t="s">
+      <c r="N50" s="97" t="s">
+        <v>394</v>
+      </c>
+      <c r="O50" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="P50" s="84" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q50" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="R50" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="S50" s="79" t="s">
-        <v>402</v>
+      <c r="P50" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q50" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="268" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
         <v>36</v>
       </c>
-      <c r="C51" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D51" s="103" t="s">
+      <c r="C51" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="99" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -6143,22 +6177,22 @@
       <c r="F51" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H51" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I51" s="192" t="s">
-        <v>469</v>
-      </c>
-      <c r="J51" s="191" t="s">
-        <v>470</v>
+      <c r="G51" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I51" s="186" t="s">
+        <v>467</v>
+      </c>
+      <c r="J51" s="185" t="s">
+        <v>468</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="L51" s="185"/>
+        <v>427</v>
+      </c>
+      <c r="L51" s="179"/>
       <c r="M51" s="12"/>
       <c r="N51" s="17" t="s">
         <v>243</v>
@@ -6181,34 +6215,34 @@
       <c r="B52" s="16">
         <v>37</v>
       </c>
-      <c r="C52" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="103" t="s">
+      <c r="C52" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="99" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H52" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I52" s="192" t="s">
-        <v>471</v>
-      </c>
-      <c r="J52" s="191" t="s">
-        <v>472</v>
+      <c r="G52" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H52" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I52" s="186" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" s="185" t="s">
+        <v>470</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="L52" s="185"/>
+        <v>427</v>
+      </c>
+      <c r="L52" s="179"/>
       <c r="M52" s="12"/>
       <c r="N52" s="17" t="s">
         <v>243</v>
@@ -6231,38 +6265,38 @@
       <c r="B53" s="16">
         <v>38</v>
       </c>
-      <c r="C53" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D53" s="103" t="s">
+      <c r="C53" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="99" t="s">
         <v>121</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="169" t="s">
+      <c r="G53" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="H53" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="I53" s="165" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" s="166" t="s">
         <v>473</v>
       </c>
-      <c r="H53" s="170" t="s">
-        <v>431</v>
-      </c>
-      <c r="I53" s="171" t="s">
-        <v>474</v>
-      </c>
-      <c r="J53" s="172" t="s">
-        <v>475</v>
-      </c>
-      <c r="K53" s="173" t="s">
-        <v>434</v>
-      </c>
-      <c r="L53" s="193" t="s">
-        <v>443</v>
+      <c r="K53" s="167" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" s="187" t="s">
+        <v>441</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N53" s="17" t="s">
         <v>243</v>
@@ -6285,23 +6319,23 @@
       <c r="B54" s="16">
         <v>39</v>
       </c>
-      <c r="C54" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D54" s="103" t="s">
+      <c r="C54" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="99" t="s">
         <v>143</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H54" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H54" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I54" s="17" t="s">
         <v>36</v>
@@ -6335,23 +6369,23 @@
       <c r="B55" s="16">
         <v>40</v>
       </c>
-      <c r="C55" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" s="103" t="s">
+      <c r="C55" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D55" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="99" t="s">
         <v>144</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H55" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H55" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>36</v>
@@ -6382,11 +6416,11 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="106">
+      <c r="B56" s="101">
         <v>41</v>
       </c>
-      <c r="C56" s="124" t="s">
-        <v>390</v>
+      <c r="C56" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>67</v>
@@ -6394,49 +6428,51 @@
       <c r="E56" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="108" t="s">
+      <c r="F56" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="78" t="s">
+        <v>474</v>
+      </c>
+      <c r="H56" s="188" t="s">
+        <v>475</v>
+      </c>
+      <c r="I56" s="189" t="s">
         <v>476</v>
       </c>
-      <c r="H56" s="194" t="s">
+      <c r="J56" s="190" t="s">
         <v>477</v>
       </c>
-      <c r="I56" s="195" t="s">
-        <v>478</v>
-      </c>
-      <c r="J56" s="196" t="s">
-        <v>479</v>
-      </c>
-      <c r="K56" s="82" t="s">
-        <v>434</v>
+      <c r="K56" s="79" t="s">
+        <v>432</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="81" t="s">
+      <c r="N56" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="O56" s="82" t="s">
+      <c r="O56" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="P56" s="82" t="s">
+      <c r="P56" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="Q56" s="82" t="s">
+      <c r="Q56" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="R56" s="82" t="s">
+      <c r="R56" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="S56" s="83"/>
+      <c r="S56" s="269" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="57" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="46">
         <v>42</v>
       </c>
-      <c r="C57" s="124" t="s">
-        <v>390</v>
+      <c r="C57" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>55</v>
@@ -6447,24 +6483,24 @@
       <c r="F57" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="H57" s="191" t="s">
+        <v>479</v>
+      </c>
+      <c r="I57" s="192" t="s">
+        <v>478</v>
+      </c>
+      <c r="J57" s="193" t="s">
         <v>480</v>
       </c>
-      <c r="H57" s="197" t="s">
+      <c r="K57" s="48" t="s">
         <v>481</v>
-      </c>
-      <c r="I57" s="198" t="s">
-        <v>480</v>
-      </c>
-      <c r="J57" s="199" t="s">
-        <v>482</v>
-      </c>
-      <c r="K57" s="49" t="s">
-        <v>483</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="12"/>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="47" t="s">
         <v>174</v>
       </c>
       <c r="O57" s="43" t="s">
@@ -6476,17 +6512,19 @@
       <c r="Q57" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="R57" s="49" t="s">
+      <c r="R57" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="S57" s="47"/>
+      <c r="S57" s="270" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="58" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="46">
         <v>43</v>
       </c>
-      <c r="C58" s="124" t="s">
-        <v>390</v>
+      <c r="C58" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>39</v>
@@ -6497,24 +6535,24 @@
       <c r="F58" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="H58" s="197" t="s">
+      <c r="G58" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="H58" s="191" t="s">
+        <v>479</v>
+      </c>
+      <c r="I58" s="192" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" s="193" t="s">
+        <v>480</v>
+      </c>
+      <c r="K58" s="48" t="s">
         <v>481</v>
-      </c>
-      <c r="I58" s="198" t="s">
-        <v>484</v>
-      </c>
-      <c r="J58" s="199" t="s">
-        <v>482</v>
-      </c>
-      <c r="K58" s="49" t="s">
-        <v>483</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="12"/>
-      <c r="N58" s="48" t="s">
+      <c r="N58" s="47" t="s">
         <v>175</v>
       </c>
       <c r="O58" s="43" t="s">
@@ -6526,17 +6564,19 @@
       <c r="Q58" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="R58" s="49" t="s">
+      <c r="R58" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="S58" s="47"/>
+      <c r="S58" s="270" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="59" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="106">
+      <c r="B59" s="101">
         <v>44</v>
       </c>
-      <c r="C59" s="124" t="s">
-        <v>390</v>
+      <c r="C59" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>40</v>
@@ -6547,48 +6587,50 @@
       <c r="F59" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="81" t="s">
-        <v>485</v>
-      </c>
-      <c r="H59" s="194" t="s">
+      <c r="G59" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="H59" s="188" t="s">
+        <v>475</v>
+      </c>
+      <c r="I59" s="189" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" s="190" t="s">
         <v>477</v>
       </c>
-      <c r="I59" s="195" t="s">
-        <v>486</v>
-      </c>
-      <c r="J59" s="196" t="s">
-        <v>479</v>
-      </c>
-      <c r="K59" s="82" t="s">
-        <v>434</v>
+      <c r="K59" s="79" t="s">
+        <v>432</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="81" t="s">
+      <c r="N59" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="O59" s="82" t="s">
+      <c r="O59" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="P59" s="82" t="s">
+      <c r="P59" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="Q59" s="82" t="s">
+      <c r="Q59" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="R59" s="82" t="s">
+      <c r="R59" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="83"/>
+      <c r="S59" s="269" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="60" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
         <v>45</v>
       </c>
-      <c r="C60" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="103" t="s">
+      <c r="C60" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D60" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -6597,20 +6639,20 @@
       <c r="F60" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H60" s="174" t="s">
-        <v>462</v>
-      </c>
-      <c r="I60" s="167" t="s">
-        <v>487</v>
-      </c>
-      <c r="J60" s="168" t="s">
-        <v>488</v>
+      <c r="G60" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H60" s="168" t="s">
+        <v>460</v>
+      </c>
+      <c r="I60" s="161" t="s">
+        <v>485</v>
+      </c>
+      <c r="J60" s="162" t="s">
+        <v>486</v>
       </c>
       <c r="K60" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="12"/>
@@ -6632,167 +6674,167 @@
       <c r="S60" s="26"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="52">
+      <c r="B61" s="51">
         <v>46</v>
       </c>
-      <c r="C61" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D61" s="115" t="s">
+      <c r="C61" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D61" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="115" t="s">
+      <c r="E61" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="200" t="s">
-        <v>489</v>
-      </c>
-      <c r="H61" s="201" t="s">
+      <c r="G61" s="194" t="s">
+        <v>487</v>
+      </c>
+      <c r="H61" s="195" t="s">
+        <v>479</v>
+      </c>
+      <c r="I61" s="196" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" s="197" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" s="198" t="s">
         <v>481</v>
-      </c>
-      <c r="I61" s="202" t="s">
-        <v>489</v>
-      </c>
-      <c r="J61" s="203" t="s">
-        <v>490</v>
-      </c>
-      <c r="K61" s="204" t="s">
-        <v>483</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="12"/>
-      <c r="N61" s="51" t="s">
+      <c r="N61" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="115" t="s">
+      <c r="O61" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="P61" s="115" t="s">
+      <c r="P61" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" s="115" t="s">
+      <c r="Q61" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="R61" s="54" t="s">
+      <c r="R61" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="S61" s="53"/>
+      <c r="S61" s="52"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="18">
         <v>47</v>
       </c>
-      <c r="C62" s="116" t="s">
-        <v>388</v>
-      </c>
-      <c r="D62" s="116" t="s">
+      <c r="C62" s="111" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="243" t="s">
+      <c r="E62" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="244"/>
+      <c r="F62" s="256"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="175"/>
+      <c r="H62" s="169"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="154"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
       <c r="L62" s="3"/>
       <c r="M62" s="12"/>
       <c r="N62" s="18"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
       <c r="S62" s="28"/>
     </row>
     <row r="63" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="19">
         <v>48</v>
       </c>
-      <c r="C63" s="117" t="s">
-        <v>388</v>
-      </c>
-      <c r="D63" s="117" t="s">
+      <c r="C63" s="112" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="245" t="s">
+      <c r="E63" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="246"/>
+      <c r="F63" s="258"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="175"/>
+      <c r="H63" s="169"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
       <c r="L63" s="3"/>
       <c r="M63" s="12"/>
       <c r="N63" s="19"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="112"/>
+      <c r="R63" s="112"/>
       <c r="S63" s="38"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="145">
+      <c r="B64" s="139">
         <v>49</v>
       </c>
-      <c r="C64" s="137" t="s">
-        <v>390</v>
-      </c>
-      <c r="D64" s="146" t="s">
+      <c r="C64" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="146" t="s">
+      <c r="E64" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="147" t="s">
+      <c r="F64" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="200" t="s">
-        <v>491</v>
-      </c>
-      <c r="H64" s="201" t="s">
-        <v>481</v>
-      </c>
-      <c r="I64" s="202" t="s">
-        <v>491</v>
-      </c>
-      <c r="J64" s="203" t="s">
+      <c r="G64" s="194" t="s">
+        <v>489</v>
+      </c>
+      <c r="H64" s="195" t="s">
+        <v>479</v>
+      </c>
+      <c r="I64" s="196" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" s="197" t="s">
+        <v>488</v>
+      </c>
+      <c r="K64" s="198" t="s">
         <v>490</v>
-      </c>
-      <c r="K64" s="204" t="s">
-        <v>492</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="148" t="s">
+      <c r="N64" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="O64" s="146" t="s">
+      <c r="O64" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="P64" s="146" t="s">
+      <c r="P64" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="146" t="s">
+      <c r="Q64" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="R64" s="149" t="s">
+      <c r="R64" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="S64" s="150"/>
+      <c r="S64" s="144"/>
     </row>
     <row r="65" spans="2:19" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
         <v>50</v>
       </c>
-      <c r="C65" s="124" t="s">
-        <v>390</v>
+      <c r="C65" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>46</v>
@@ -6803,26 +6845,26 @@
       <c r="F65" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="H65" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I65" s="167" t="s">
+      <c r="G65" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="H65" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I65" s="161" t="s">
+        <v>491</v>
+      </c>
+      <c r="J65" s="162" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="L65" s="183" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="J65" s="168" t="s">
-        <v>475</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L65" s="189" t="s">
-        <v>494</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="N65" s="17" t="s">
         <v>243</v>
@@ -6845,10 +6887,10 @@
       <c r="B66" s="16">
         <v>51</v>
       </c>
-      <c r="C66" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D66" s="98" t="s">
+      <c r="C66" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D66" s="94" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -6858,10 +6900,10 @@
         <v>101</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H66" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H66" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>36</v>
@@ -6895,10 +6937,10 @@
       <c r="B67" s="16">
         <v>52</v>
       </c>
-      <c r="C67" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D67" s="98" t="s">
+      <c r="C67" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" s="94" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="10" t="s">
@@ -6908,10 +6950,10 @@
         <v>101</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H67" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H67" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>36</v>
@@ -6945,10 +6987,10 @@
       <c r="B68" s="16">
         <v>53</v>
       </c>
-      <c r="C68" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D68" s="103" t="s">
+      <c r="C68" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D68" s="99" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -6958,10 +7000,10 @@
         <v>101</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H68" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H68" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>36</v>
@@ -6995,8 +7037,8 @@
       <c r="B69" s="16">
         <v>54</v>
       </c>
-      <c r="C69" s="124" t="s">
-        <v>390</v>
+      <c r="C69" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>62</v>
@@ -7008,10 +7050,10 @@
         <v>101</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H69" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H69" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>36</v>
@@ -7041,27 +7083,27 @@
       </c>
       <c r="S69" s="26"/>
     </row>
-    <row r="70" spans="2:19" s="119" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" s="114" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>55</v>
       </c>
-      <c r="C70" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D70" s="103" t="s">
+      <c r="C70" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="D70" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="F70" s="120" t="s">
+      <c r="E70" s="99" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="115" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H70" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H70" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>36</v>
@@ -7095,8 +7137,8 @@
       <c r="B71" s="16">
         <v>56</v>
       </c>
-      <c r="C71" s="124" t="s">
-        <v>390</v>
+      <c r="C71" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>48</v>
@@ -7107,24 +7149,24 @@
       <c r="F71" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="205" t="s">
+      <c r="G71" s="199" t="s">
+        <v>494</v>
+      </c>
+      <c r="H71" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I71" s="200" t="s">
         <v>496</v>
       </c>
-      <c r="H71" s="184" t="s">
+      <c r="J71" s="201" t="s">
         <v>497</v>
       </c>
-      <c r="I71" s="206" t="s">
-        <v>498</v>
-      </c>
-      <c r="J71" s="207" t="s">
-        <v>499</v>
-      </c>
-      <c r="K71" s="208" t="s">
-        <v>429</v>
+      <c r="K71" s="202" t="s">
+        <v>427</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N71" s="17" t="s">
         <v>243</v>
@@ -7147,8 +7189,8 @@
       <c r="B72" s="16">
         <v>57</v>
       </c>
-      <c r="C72" s="124" t="s">
-        <v>390</v>
+      <c r="C72" s="119" t="s">
+        <v>388</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>56</v>
@@ -7160,10 +7202,10 @@
         <v>162</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H72" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H72" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>36</v>
@@ -7197,8 +7239,8 @@
       <c r="B73" s="16">
         <v>58</v>
       </c>
-      <c r="C73" s="124" t="s">
-        <v>394</v>
+      <c r="C73" s="119" t="s">
+        <v>392</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>57</v>
@@ -7209,50 +7251,50 @@
       <c r="F73" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="205" t="s">
-        <v>501</v>
-      </c>
-      <c r="H73" s="184" t="s">
+      <c r="G73" s="199" t="s">
+        <v>499</v>
+      </c>
+      <c r="H73" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I73" s="200" t="s">
+        <v>500</v>
+      </c>
+      <c r="J73" s="201" t="s">
         <v>497</v>
       </c>
-      <c r="I73" s="206" t="s">
-        <v>502</v>
-      </c>
-      <c r="J73" s="207" t="s">
-        <v>499</v>
-      </c>
-      <c r="K73" s="208" t="s">
-        <v>429</v>
+      <c r="K73" s="202" t="s">
+        <v>427</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="N73" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="N73" s="77" t="s">
         <v>173</v>
       </c>
       <c r="O73" s="40" t="s">
         <v>18</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q73" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R73" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S73" s="104" t="s">
-        <v>333</v>
+      <c r="S73" s="271" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="2:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="105">
+      <c r="B74" s="100">
         <v>59</v>
       </c>
-      <c r="C74" s="124" t="s">
-        <v>394</v>
+      <c r="C74" s="119" t="s">
+        <v>392</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>58</v>
@@ -7264,10 +7306,10 @@
         <v>101</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H74" s="165" t="s">
-        <v>426</v>
+        <v>423</v>
+      </c>
+      <c r="H74" s="159" t="s">
+        <v>424</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>36</v>
@@ -7278,25 +7320,25 @@
       <c r="K74" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="185"/>
+      <c r="L74" s="179"/>
       <c r="M74" s="12"/>
-      <c r="N74" s="134" t="s">
+      <c r="N74" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="O74" s="135" t="s">
+      <c r="O74" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="P74" s="135" t="s">
+      <c r="P74" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q74" s="130" t="s">
         <v>331</v>
       </c>
-      <c r="Q74" s="135" t="s">
-        <v>332</v>
-      </c>
-      <c r="R74" s="135" t="s">
+      <c r="R74" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="S74" s="136" t="s">
-        <v>333</v>
+      <c r="S74" s="272" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.3">
@@ -7304,43 +7346,43 @@
         <v>60</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E75" s="243" t="s">
+      <c r="E75" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="244"/>
+      <c r="F75" s="256"/>
       <c r="G75" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="H75" s="175"/>
-      <c r="I75" s="209" t="s">
-        <v>503</v>
-      </c>
-      <c r="J75" s="210"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="185"/>
+        <v>501</v>
+      </c>
+      <c r="H75" s="169"/>
+      <c r="I75" s="203" t="s">
+        <v>501</v>
+      </c>
+      <c r="J75" s="204"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="179"/>
       <c r="M75" s="12"/>
       <c r="N75" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96" t="s">
+      <c r="O75" s="92"/>
+      <c r="P75" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
+      <c r="Q75" s="92"/>
+      <c r="R75" s="92"/>
       <c r="S75" s="28"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B76" s="105">
+      <c r="B76" s="100">
         <v>61</v>
       </c>
-      <c r="C76" s="124" t="s">
-        <v>394</v>
+      <c r="C76" s="119" t="s">
+        <v>392</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>44</v>
@@ -7351,35 +7393,35 @@
       <c r="F76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="H76" s="174" t="s">
-        <v>431</v>
-      </c>
-      <c r="I76" s="167" t="s">
+      <c r="G76" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="H76" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="I76" s="161" t="s">
+        <v>502</v>
+      </c>
+      <c r="J76" s="162" t="s">
+        <v>503</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="L76" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="J76" s="168" t="s">
+      <c r="M76" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="K76" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="L76" s="124" t="s">
-        <v>506</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="N76" s="67" t="s">
+      <c r="N76" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O76" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P76" s="40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q76" s="40" t="s">
         <v>169</v>
@@ -7387,16 +7429,18 @@
       <c r="R76" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S76" s="79"/>
+      <c r="S76" s="266" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="77" spans="2:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
         <v>62</v>
       </c>
-      <c r="C77" s="124" t="s">
-        <v>394</v>
-      </c>
-      <c r="D77" s="98" t="s">
+      <c r="C77" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" s="94" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -7405,68 +7449,70 @@
       <c r="F77" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="205" t="s">
-        <v>508</v>
-      </c>
-      <c r="H77" s="184" t="s">
-        <v>497</v>
-      </c>
-      <c r="I77" s="211" t="s">
-        <v>509</v>
-      </c>
-      <c r="J77" s="212" t="s">
-        <v>505</v>
-      </c>
-      <c r="K77" s="213" t="s">
-        <v>429</v>
-      </c>
-      <c r="L77" s="189"/>
+      <c r="G77" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="H77" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I77" s="205" t="s">
+        <v>507</v>
+      </c>
+      <c r="J77" s="206" t="s">
+        <v>503</v>
+      </c>
+      <c r="K77" s="207" t="s">
+        <v>427</v>
+      </c>
+      <c r="L77" s="183"/>
       <c r="M77" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="N77" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="N77" s="66" t="s">
         <v>17</v>
       </c>
       <c r="O77" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P77" s="40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R77" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S77" s="80"/>
+      <c r="S77" s="273" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B78" s="18">
         <v>63</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="243" t="s">
+      <c r="E78" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="244"/>
+      <c r="F78" s="256"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="175"/>
+      <c r="H78" s="169"/>
       <c r="I78" s="18"/>
-      <c r="J78" s="154"/>
-      <c r="K78" s="154"/>
-      <c r="L78" s="214"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="208"/>
       <c r="M78" s="12"/>
       <c r="N78" s="18"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
+      <c r="R78" s="92"/>
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7474,190 +7520,172 @@
         <v>64</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="245" t="s">
+      <c r="E79" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="246"/>
+      <c r="F79" s="258"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="215"/>
+      <c r="H79" s="209"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="155"/>
-      <c r="K79" s="155"/>
-      <c r="L79" s="216"/>
+      <c r="J79" s="149"/>
+      <c r="K79" s="149"/>
+      <c r="L79" s="210"/>
       <c r="M79" s="24"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="97"/>
-      <c r="P79" s="97"/>
-      <c r="Q79" s="97"/>
-      <c r="R79" s="97"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="93"/>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="93"/>
       <c r="S79" s="38"/>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="G83" s="169" t="s">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G83" s="163" t="s">
+        <v>428</v>
+      </c>
+      <c r="H83" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="I83" s="165" t="s">
         <v>430</v>
       </c>
-      <c r="H83" s="170" t="s">
+      <c r="J83" s="166" t="s">
         <v>431</v>
       </c>
-      <c r="I83" s="171" t="s">
+      <c r="K83" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="J83" s="172" t="s">
-        <v>433</v>
-      </c>
-      <c r="K83" s="173" t="s">
-        <v>434</v>
-      </c>
-      <c r="N83" s="101" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="205" t="s">
+      <c r="G84" s="199" t="s">
+        <v>494</v>
+      </c>
+      <c r="H84" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I84" s="200" t="s">
         <v>496</v>
       </c>
-      <c r="H84" s="184" t="s">
+      <c r="J84" s="201" t="s">
         <v>497</v>
       </c>
-      <c r="I84" s="206" t="s">
-        <v>498</v>
-      </c>
-      <c r="J84" s="207" t="s">
-        <v>499</v>
-      </c>
-      <c r="K84" s="208" t="s">
-        <v>429</v>
-      </c>
-      <c r="N84" s="101" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K84" s="202" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="169" t="s">
+      <c r="G85" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="H85" s="178" t="s">
+        <v>429</v>
+      </c>
+      <c r="I85" s="165" t="s">
+        <v>452</v>
+      </c>
+      <c r="J85" s="166" t="s">
         <v>453</v>
       </c>
-      <c r="H85" s="184" t="s">
-        <v>431</v>
-      </c>
-      <c r="I85" s="171" t="s">
-        <v>454</v>
-      </c>
-      <c r="J85" s="172" t="s">
-        <v>455</v>
-      </c>
-      <c r="K85" s="173" t="s">
-        <v>434</v>
-      </c>
-      <c r="N85" s="101" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K85" s="167" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="205" t="s">
-        <v>501</v>
-      </c>
-      <c r="H86" s="184" t="s">
+      <c r="G86" s="199" t="s">
+        <v>499</v>
+      </c>
+      <c r="H86" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I86" s="200" t="s">
+        <v>500</v>
+      </c>
+      <c r="J86" s="201" t="s">
         <v>497</v>
       </c>
-      <c r="I86" s="206" t="s">
-        <v>502</v>
-      </c>
-      <c r="J86" s="207" t="s">
-        <v>499</v>
-      </c>
-      <c r="K86" s="208" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K86" s="202" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="169" t="s">
+      <c r="G87" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="H87" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="I87" s="165" t="s">
+        <v>472</v>
+      </c>
+      <c r="J87" s="166" t="s">
         <v>473</v>
       </c>
-      <c r="H87" s="170" t="s">
-        <v>431</v>
-      </c>
-      <c r="I87" s="171" t="s">
-        <v>474</v>
-      </c>
-      <c r="J87" s="172" t="s">
-        <v>475</v>
-      </c>
-      <c r="K87" s="173" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K87" s="167" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="205" t="s">
-        <v>508</v>
-      </c>
-      <c r="H88" s="184" t="s">
-        <v>497</v>
-      </c>
-      <c r="I88" s="211" t="s">
-        <v>509</v>
-      </c>
-      <c r="J88" s="212" t="s">
-        <v>505</v>
-      </c>
-      <c r="K88" s="213" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="G88" s="199" t="s">
+        <v>506</v>
+      </c>
+      <c r="H88" s="178" t="s">
+        <v>495</v>
+      </c>
+      <c r="I88" s="205" t="s">
+        <v>507</v>
+      </c>
+      <c r="J88" s="206" t="s">
+        <v>503</v>
+      </c>
+      <c r="K88" s="207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B15:S79"/>
   <mergeCells count="25">
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="P14:S14"/>
@@ -7674,6 +7702,15 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7702,7 +7739,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7722,332 +7759,332 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="57"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>8000000</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <v>8000000</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <v>8000000</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <v>8000000</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="59">
         <v>8000000</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="60" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="59">
         <v>2</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <v>2</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="59">
         <v>2</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="59">
         <v>1</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="59">
         <v>2</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="59">
         <f>E8/E9</f>
         <v>4000000</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f>F8/F9</f>
         <v>4000000</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="59">
         <f>G8/G9</f>
         <v>4000000</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <f>H8/H9</f>
         <v>8000000</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="59">
         <f>I8/I9</f>
         <v>4000000</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="59">
         <v>12</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <v>12</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="59">
         <v>12</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>6</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="59">
         <v>12</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="59">
         <f>E10*E11</f>
         <v>48000000</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <f>F10*F11</f>
         <v>48000000</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="59">
         <f>G10*G11</f>
         <v>48000000</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <f>H10*H11</f>
         <v>48000000</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="59">
         <f>I10*I11</f>
         <v>48000000</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="60" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="59">
         <v>1</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="59">
         <v>1</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>1</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="59">
         <v>1</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <f>E12/E13</f>
         <v>48000000</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <f>F12/F13</f>
         <v>48000000</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f>G12/G13</f>
         <v>48000000</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f>H12/H13</f>
         <v>48000000</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <f>I12/I13</f>
         <v>48000000</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="63"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="57">
         <v>1</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="57">
         <v>1</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="57">
         <v>1</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="57">
         <v>4</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>1</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="59">
         <f>E14/E18</f>
         <v>48000000</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="59">
         <f>F14/F18</f>
         <v>48000000</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="59">
         <f>G14/G18</f>
         <v>48000000</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="59">
         <f>H14/H18</f>
         <v>12000000</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="59">
         <f>I14/I18</f>
         <v>48000000</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="60" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="59">
         <v>1</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="59">
         <v>1</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="59">
         <v>1</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="59">
         <v>2</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="59">
         <v>1</v>
       </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="61">
         <f>E19*E20</f>
         <v>48000000</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="61">
         <f>F19*F20</f>
         <v>48000000</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="61">
         <f>G19*G20</f>
         <v>48000000</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="61">
         <f>H19*H20</f>
         <v>24000000</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="61">
         <f>I19*I20</f>
         <v>48000000</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="62" t="s">
         <v>202</v>
       </c>
       <c r="L21" t="s">
@@ -8055,250 +8092,250 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
+      <c r="B24" s="65"/>
       <c r="C24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <v>16000000</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <v>16000000</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="57">
         <v>8000000</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="57">
         <v>8000000</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <v>1000000</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="58" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="61">
         <f>(E21/E26)-1</f>
         <v>2</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="61">
         <f>(F21/F26)-1</f>
         <v>2</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="61">
         <f>(G21/G26)-1</f>
         <v>5</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="61">
         <f>(H21/H26)-1</f>
         <v>2</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="61">
         <f>(I21/I26)-1</f>
         <v>47</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="74" t="s">
+      <c r="J27" s="61"/>
+      <c r="K27" s="73" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="56"/>
+      <c r="D29" s="55"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="57">
         <v>24000</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="57">
         <v>80000</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="57">
         <v>80000</v>
       </c>
-      <c r="H30" s="58">
+      <c r="H30" s="57">
         <v>80000</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <v>80000</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="K30" s="59"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="59">
         <f>INT(E26/E30-1)</f>
         <v>665</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="59">
         <f>INT(F26/F30-1)</f>
         <v>199</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="59">
         <f>INT(G26/G30-1)</f>
         <v>99</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="59">
         <f>INT(H26/H30-1)</f>
         <v>99</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="59">
         <f>INT(I26/I30-1)</f>
         <v>11</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="75" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="74" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="72">
         <f>E26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="72">
         <f>F26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <f>G26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="72">
         <f>H26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="72">
         <f>I26/(65535+1)</f>
         <v>15.2587890625</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="60" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="72">
         <f>E26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="F33" s="73">
+      <c r="F33" s="72">
         <f>F26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="72">
         <f>G26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="72">
         <f>H26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="72">
         <f>I26/(0+1)</f>
         <v>1000000</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="60" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="59">
         <v>50</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="59">
         <v>50</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="59">
         <v>50</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="59">
         <v>50</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="59">
         <v>50</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="61"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="61">
         <f>INT(E31*E34/100)</f>
         <v>332</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="61">
         <f>INT(F31*F34/100)</f>
         <v>99</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="61">
         <f>INT(G31*G34/100)</f>
         <v>49</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="61">
         <f>INT(H31*H34/100)</f>
         <v>49</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="61">
         <f>INT(I31*I34/100)</f>
         <v>5</v>
       </c>
-      <c r="J35" s="62"/>
-      <c r="K35" s="74" t="s">
+      <c r="J35" s="61"/>
+      <c r="K35" s="73" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8337,1398 +8374,1398 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="86"/>
-    <col min="3" max="3" width="12.75" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="85" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="9" style="86"/>
-    <col min="9" max="9" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="82"/>
+    <col min="3" max="3" width="12.75" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="81" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="81" customWidth="1"/>
+    <col min="8" max="8" width="9" style="82"/>
+    <col min="9" max="9" width="11.875" style="81" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="81" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.625" style="85" customWidth="1"/>
+    <col min="12" max="13" width="12.625" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="82" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="111" t="s">
+    <row r="3" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="90">
+        <v>1</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="90">
+        <v>2</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="90">
+        <v>3</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="G5" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="90">
+        <v>4</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="90">
+        <v>5</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="90">
+        <v>6</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="90">
+        <v>7</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7" s="90">
+        <v>8</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="90">
+        <v>9</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8" s="90">
+        <v>10</v>
+      </c>
+      <c r="I8" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="90">
+        <v>11</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="84"/>
+      <c r="H9" s="90">
+        <v>12</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="59"/>
+      <c r="L9" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M9" s="84"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="90">
+        <v>13</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="90">
+        <v>14</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M10" s="84"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="90">
+        <v>15</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="90">
+        <v>16</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="90">
+        <v>17</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="90">
+        <v>18</v>
+      </c>
+      <c r="I12" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K12" s="59"/>
+      <c r="L12" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M12" s="84"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="90">
+        <v>19</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="90">
+        <v>20</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="59"/>
+      <c r="L13" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="90">
+        <v>21</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="90">
+        <v>22</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K14" s="59"/>
+      <c r="L14" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M14" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="90">
+        <v>23</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="90">
+        <v>24</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="90">
+        <v>25</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="90">
+        <v>26</v>
+      </c>
+      <c r="I16" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="59"/>
+      <c r="L16" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="M16" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="90">
+        <v>27</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="90">
+        <v>28</v>
+      </c>
+      <c r="I17" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" s="59"/>
+      <c r="L17" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="90">
+        <v>29</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="H18" s="90">
+        <v>30</v>
+      </c>
+      <c r="I18" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="90">
+        <v>31</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" s="90">
+        <v>32</v>
+      </c>
+      <c r="I19" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="59"/>
+      <c r="L19" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="90">
+        <v>33</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="90">
+        <v>34</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="59"/>
+      <c r="L20" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="90">
+        <v>35</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="90">
+        <v>36</v>
+      </c>
+      <c r="I21" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="90">
+        <v>37</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="90">
+        <v>38</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K22" s="59"/>
+      <c r="L22" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="M22" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="91">
+        <v>39</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="91">
+        <v>40</v>
+      </c>
+      <c r="I23" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" s="86"/>
+    </row>
+    <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="F3" s="113" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="114" t="s">
+      <c r="F26" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H26" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I26" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" s="112" t="s">
+      <c r="J26" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="L3" s="113" t="s">
-        <v>338</v>
-      </c>
-      <c r="M3" s="114" t="s">
+      <c r="L26" s="108" t="s">
+        <v>336</v>
+      </c>
+      <c r="M26" s="109" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="94">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="90">
         <v>1</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="87" t="s">
+      <c r="C27" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="90">
+        <v>2</v>
+      </c>
+      <c r="I27" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="J27" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87" t="s">
+      <c r="K27" s="59"/>
+      <c r="L27" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="94">
-        <v>2</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="87" t="s">
+      <c r="M27" s="87"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="90">
+        <v>3</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="87" t="s">
-        <v>345</v>
-      </c>
-      <c r="M4" s="88" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="94">
-        <v>3</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="91" t="s">
+      <c r="E28" s="83"/>
+      <c r="F28" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="G28" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H28" s="90">
         <v>4</v>
       </c>
-      <c r="I5" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="87" t="s">
+      <c r="I28" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="J28" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="M5" s="91" t="s">
+      <c r="K28" s="59"/>
+      <c r="L28" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M28" s="84"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="90">
+        <v>5</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="87" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="94">
-        <v>5</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="91" t="s">
+      <c r="H29" s="90">
+        <v>6</v>
+      </c>
+      <c r="I29" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="59"/>
+      <c r="L29" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="M29" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="94">
-        <v>6</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="87" t="s">
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="90">
+        <v>7</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="M6" s="91" t="s">
+      <c r="E30" s="83"/>
+      <c r="F30" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="84"/>
+      <c r="H30" s="90">
+        <v>8</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K30" s="59"/>
+      <c r="L30" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M30" s="84"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="90">
+        <v>9</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" s="87" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="94">
-        <v>7</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="91" t="s">
+      <c r="H31" s="90">
+        <v>10</v>
+      </c>
+      <c r="I31" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="59"/>
+      <c r="L31" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M31" s="84"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="90">
+        <v>11</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="G32" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="H7" s="94">
-        <v>8</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="87" t="s">
+      <c r="H32" s="90">
+        <v>12</v>
+      </c>
+      <c r="I32" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="92" t="s">
-        <v>349</v>
-      </c>
-      <c r="M7" s="91" t="s">
+      <c r="K32" s="59"/>
+      <c r="L32" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="90">
+        <v>13</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" s="87" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="94">
-        <v>9</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="87" t="s">
+      <c r="H33" s="90">
+        <v>14</v>
+      </c>
+      <c r="I33" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" s="91" t="s">
+      <c r="K33" s="59"/>
+      <c r="L33" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="M33" s="87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="90">
+        <v>15</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="94">
-        <v>10</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="87" t="s">
+      <c r="H34" s="90">
+        <v>16</v>
+      </c>
+      <c r="I34" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="87" t="s">
-        <v>350</v>
-      </c>
-      <c r="M8" s="91" t="s">
+      <c r="K34" s="59"/>
+      <c r="L34" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="M34" s="87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="90">
+        <v>17</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="87" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="94">
-        <v>11</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="87" t="s">
+      <c r="H35" s="90">
+        <v>18</v>
+      </c>
+      <c r="I35" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87" t="s">
+      <c r="K35" s="59"/>
+      <c r="L35" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="94">
-        <v>12</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="87" t="s">
+      <c r="M35" s="84"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="90">
+        <v>19</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="87" t="s">
+      <c r="E36" s="83"/>
+      <c r="F36" s="83" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="90">
+        <v>20</v>
+      </c>
+      <c r="I36" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="88"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="94">
-        <v>13</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="87" t="s">
+      <c r="K36" s="59"/>
+      <c r="L36" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87" t="s">
+      <c r="M36" s="84"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="90">
+        <v>21</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="94">
-        <v>14</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="87" t="s">
+      <c r="E37" s="83"/>
+      <c r="F37" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H37" s="90">
+        <v>22</v>
+      </c>
+      <c r="I37" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="M37" s="88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="90">
+        <v>23</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="87" t="s">
+      <c r="E38" s="83"/>
+      <c r="F38" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H38" s="90">
+        <v>24</v>
+      </c>
+      <c r="I38" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="M38" s="88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="90">
+        <v>25</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="M10" s="88"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="94">
-        <v>15</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="87" t="s">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="90">
+        <v>26</v>
+      </c>
+      <c r="I39" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="94">
-        <v>16</v>
-      </c>
-      <c r="I11" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="87" t="s">
+      <c r="K39" s="59"/>
+      <c r="L39" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="87" t="s">
+      <c r="M39" s="84"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="90">
+        <v>27</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="M11" s="88"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="94">
-        <v>17</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="87" t="s">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H40" s="90">
+        <v>28</v>
+      </c>
+      <c r="I40" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87" t="s">
+      <c r="K40" s="59"/>
+      <c r="L40" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" s="87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="90">
+        <v>29</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="94">
-        <v>18</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" s="87" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H41" s="90">
+        <v>30</v>
+      </c>
+      <c r="I41" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" s="59"/>
+      <c r="L41" s="83" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" s="87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="90">
+        <v>31</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="87" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" s="90">
+        <v>32</v>
+      </c>
+      <c r="I42" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="K42" s="59"/>
+      <c r="L42" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" s="87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="90">
+        <v>33</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="M12" s="88"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="94">
-        <v>19</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="94">
-        <v>20</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="J13" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="94">
-        <v>21</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="87" t="s">
+      <c r="E43" s="83"/>
+      <c r="F43" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H43" s="90">
+        <v>34</v>
+      </c>
+      <c r="I43" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="88" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="87" t="s">
+      <c r="M43" s="84"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="90">
+        <v>35</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="94">
-        <v>22</v>
-      </c>
-      <c r="I14" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="87" t="s">
+      <c r="E44" s="83"/>
+      <c r="F44" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="H44" s="90">
+        <v>36</v>
+      </c>
+      <c r="I44" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="M14" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="94">
-        <v>23</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="94">
-        <v>24</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="J15" s="87" t="s">
+      <c r="K44" s="59"/>
+      <c r="L44" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="87" t="s">
+      <c r="M44" s="84"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="90">
+        <v>37</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="M15" s="91"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="94">
-        <v>25</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="87" t="s">
+      <c r="E45" s="83"/>
+      <c r="F45" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="G45" s="84"/>
+      <c r="H45" s="90">
+        <v>38</v>
+      </c>
+      <c r="I45" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="94">
-        <v>26</v>
-      </c>
-      <c r="I16" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="J16" s="87" t="s">
+      <c r="K45" s="59"/>
+      <c r="L45" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="M16" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="94">
-        <v>27</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="94">
-        <v>28</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="87" t="s">
+      <c r="M45" s="84"/>
+    </row>
+    <row r="46" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="91">
+        <v>39</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="M17" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="94">
-        <v>29</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="87" t="s">
+      <c r="E46" s="85"/>
+      <c r="F46" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87" t="s">
-        <v>343</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="H18" s="94">
-        <v>30</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="J18" s="87" t="s">
+      <c r="G46" s="86"/>
+      <c r="H46" s="91">
+        <v>40</v>
+      </c>
+      <c r="I46" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="J46" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="M18" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="94">
-        <v>31</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="87" t="s">
+      <c r="K46" s="61"/>
+      <c r="L46" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="H19" s="94">
-        <v>32</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="J19" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="M19" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="94">
-        <v>33</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="94">
-        <v>34</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M20" s="88"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="94">
-        <v>35</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="94">
-        <v>36</v>
-      </c>
-      <c r="I21" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M21" s="88"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="94">
-        <v>37</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="94">
-        <v>38</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="M22" s="91" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="95">
-        <v>39</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="95">
-        <v>40</v>
-      </c>
-      <c r="I23" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="J23" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="M23" s="90"/>
-    </row>
-    <row r="25" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="111" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="E26" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="113" t="s">
-        <v>338</v>
-      </c>
-      <c r="G26" s="114" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="111" t="s">
-        <v>320</v>
-      </c>
-      <c r="I26" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="J26" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="K26" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="L26" s="113" t="s">
-        <v>338</v>
-      </c>
-      <c r="M26" s="114" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="94">
-        <v>1</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" s="118" t="s">
-        <v>310</v>
-      </c>
-      <c r="E27" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="G27" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H27" s="94">
-        <v>2</v>
-      </c>
-      <c r="I27" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="J27" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M27" s="91"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="94">
-        <v>3</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="G28" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H28" s="94">
-        <v>4</v>
-      </c>
-      <c r="I28" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="J28" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M28" s="88"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="94">
-        <v>5</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H29" s="94">
-        <v>6</v>
-      </c>
-      <c r="I29" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="J29" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="87" t="s">
-        <v>373</v>
-      </c>
-      <c r="M29" s="91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="94">
-        <v>7</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="94">
-        <v>8</v>
-      </c>
-      <c r="I30" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K30" s="60"/>
-      <c r="L30" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M30" s="88"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="94">
-        <v>9</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="G31" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H31" s="94">
-        <v>10</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M31" s="88"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="94">
-        <v>11</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87" t="s">
-        <v>361</v>
-      </c>
-      <c r="G32" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H32" s="94">
-        <v>12</v>
-      </c>
-      <c r="I32" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="J32" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M32" s="88"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="94">
-        <v>13</v>
-      </c>
-      <c r="C33" s="92" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="118" t="s">
-        <v>311</v>
-      </c>
-      <c r="E33" s="118" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="G33" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H33" s="94">
-        <v>14</v>
-      </c>
-      <c r="I33" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="92" t="s">
-        <v>376</v>
-      </c>
-      <c r="M33" s="91" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="94">
-        <v>15</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87" t="s">
-        <v>363</v>
-      </c>
-      <c r="G34" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H34" s="94">
-        <v>16</v>
-      </c>
-      <c r="I34" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="J34" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K34" s="60"/>
-      <c r="L34" s="87" t="s">
-        <v>377</v>
-      </c>
-      <c r="M34" s="91" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="94">
-        <v>17</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87" t="s">
-        <v>364</v>
-      </c>
-      <c r="G35" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H35" s="94">
-        <v>18</v>
-      </c>
-      <c r="I35" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="J35" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K35" s="60"/>
-      <c r="L35" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M35" s="88"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="94">
-        <v>19</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="G36" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H36" s="94">
-        <v>20</v>
-      </c>
-      <c r="I36" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="J36" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K36" s="60"/>
-      <c r="L36" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M36" s="88"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="94">
-        <v>21</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="G37" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H37" s="94">
-        <v>22</v>
-      </c>
-      <c r="I37" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="J37" s="92" t="s">
-        <v>323</v>
-      </c>
-      <c r="K37" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="L37" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="M37" s="92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="94">
-        <v>23</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H38" s="94">
-        <v>24</v>
-      </c>
-      <c r="I38" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="J38" s="92" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="L38" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="M38" s="92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="94">
-        <v>25</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="94">
-        <v>26</v>
-      </c>
-      <c r="I39" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M39" s="88"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="94">
-        <v>27</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87" t="s">
-        <v>368</v>
-      </c>
-      <c r="G40" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H40" s="94">
-        <v>28</v>
-      </c>
-      <c r="I40" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="J40" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K40" s="60"/>
-      <c r="L40" s="87" t="s">
-        <v>378</v>
-      </c>
-      <c r="M40" s="91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="94">
-        <v>29</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H41" s="94">
-        <v>30</v>
-      </c>
-      <c r="I41" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="J41" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="K41" s="60"/>
-      <c r="L41" s="87" t="s">
-        <v>379</v>
-      </c>
-      <c r="M41" s="91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="94">
-        <v>31</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="G42" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H42" s="94">
-        <v>32</v>
-      </c>
-      <c r="I42" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="M42" s="91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="94">
-        <v>33</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="G43" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H43" s="94">
-        <v>34</v>
-      </c>
-      <c r="I43" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="J43" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="K43" s="92" t="s">
-        <v>314</v>
-      </c>
-      <c r="L43" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M43" s="88"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="94">
-        <v>35</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="G44" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="H44" s="94">
-        <v>36</v>
-      </c>
-      <c r="I44" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="J44" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K44" s="60"/>
-      <c r="L44" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M44" s="88"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="94">
-        <v>37</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="88"/>
-      <c r="H45" s="94">
-        <v>38</v>
-      </c>
-      <c r="I45" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="J45" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="M45" s="88"/>
-    </row>
-    <row r="46" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="95">
-        <v>39</v>
-      </c>
-      <c r="C46" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="95">
-        <v>40</v>
-      </c>
-      <c r="I46" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="J46" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="M46" s="90"/>
+      <c r="M46" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9755,365 +9792,365 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="262" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="264" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="265"/>
+      <c r="E3" s="260" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="261"/>
+      <c r="H3" s="262" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="264" t="s">
+        <v>528</v>
+      </c>
+      <c r="J3" s="265"/>
+      <c r="K3" s="260" t="s">
+        <v>529</v>
+      </c>
+      <c r="L3" s="261"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="263"/>
+      <c r="C4" s="223" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="212" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="229" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="230" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="263"/>
+      <c r="I4" s="223" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="212" t="s">
+        <v>510</v>
+      </c>
+      <c r="K4" s="229" t="s">
+        <v>527</v>
+      </c>
+      <c r="L4" s="230" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="216">
+        <v>1</v>
+      </c>
+      <c r="C5" s="224" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="219" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5" s="213" t="s">
+        <v>532</v>
+      </c>
+      <c r="H5" s="216">
+        <v>2</v>
+      </c>
+      <c r="I5" s="224" t="s">
+        <v>509</v>
+      </c>
+      <c r="J5" s="225" t="s">
+        <v>509</v>
+      </c>
+      <c r="K5" s="219" t="s">
+        <v>531</v>
+      </c>
+      <c r="L5" s="213" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="217">
+        <v>3</v>
+      </c>
+      <c r="C6" s="226" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="263" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="261" t="s">
-        <v>532</v>
-      </c>
-      <c r="F3" s="262"/>
-      <c r="H3" s="263" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="265" t="s">
-        <v>531</v>
-      </c>
-      <c r="J3" s="266"/>
-      <c r="K3" s="261" t="s">
-        <v>532</v>
-      </c>
-      <c r="L3" s="262"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="264"/>
-      <c r="C4" s="229" t="s">
-        <v>530</v>
-      </c>
-      <c r="D4" s="218" t="s">
+      <c r="D6" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="220" t="s">
         <v>513</v>
       </c>
-      <c r="E4" s="235" t="s">
-        <v>530</v>
-      </c>
-      <c r="F4" s="236" t="s">
+      <c r="F6" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="H6" s="217">
+        <v>4</v>
+      </c>
+      <c r="I6" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K6" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="217">
+        <v>5</v>
+      </c>
+      <c r="C7" s="226" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>512</v>
+      </c>
+      <c r="E7" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="217">
+        <v>6</v>
+      </c>
+      <c r="I7" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K7" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="217">
+        <v>7</v>
+      </c>
+      <c r="C8" s="226" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="220" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8" s="87" t="s">
         <v>533</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="229" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="218" t="s">
+      <c r="H8" s="217">
+        <v>8</v>
+      </c>
+      <c r="I8" s="226" t="s">
         <v>513</v>
       </c>
-      <c r="K4" s="235" t="s">
-        <v>530</v>
-      </c>
-      <c r="L4" s="236" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="222">
-        <v>1</v>
-      </c>
-      <c r="C5" s="230" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="231" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="225" t="s">
+      <c r="J8" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K8" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="217">
+        <v>9</v>
+      </c>
+      <c r="C9" s="226" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="220" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>534</v>
       </c>
-      <c r="F5" s="219" t="s">
-        <v>535</v>
-      </c>
-      <c r="H5" s="222">
-        <v>2</v>
-      </c>
-      <c r="I5" s="230" t="s">
-        <v>512</v>
-      </c>
-      <c r="J5" s="231" t="s">
-        <v>512</v>
-      </c>
-      <c r="K5" s="225" t="s">
-        <v>534</v>
-      </c>
-      <c r="L5" s="219" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="223">
-        <v>3</v>
-      </c>
-      <c r="C6" s="232" t="s">
+      <c r="H9" s="217">
+        <v>10</v>
+      </c>
+      <c r="I9" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J9" s="87" t="s">
         <v>514</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>515</v>
-      </c>
-      <c r="E6" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>516</v>
-      </c>
-      <c r="H6" s="223">
-        <v>4</v>
-      </c>
-      <c r="I6" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K6" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="L6" s="91" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="223">
-        <v>5</v>
-      </c>
-      <c r="C7" s="232" t="s">
-        <v>518</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>515</v>
-      </c>
-      <c r="E7" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="223">
-        <v>6</v>
-      </c>
-      <c r="I7" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J7" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K7" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="L7" s="91" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="223">
-        <v>7</v>
-      </c>
-      <c r="C8" s="232" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>520</v>
-      </c>
-      <c r="E8" s="226" t="s">
-        <v>520</v>
-      </c>
-      <c r="F8" s="91" t="s">
+      <c r="K9" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="217">
+        <v>11</v>
+      </c>
+      <c r="C10" s="226" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" s="221"/>
+      <c r="F10" s="214"/>
+      <c r="H10" s="217">
+        <v>12</v>
+      </c>
+      <c r="I10" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J10" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K10" s="221"/>
+      <c r="L10" s="214"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="217">
+        <v>13</v>
+      </c>
+      <c r="C11" s="226" t="s">
+        <v>523</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="221"/>
+      <c r="F11" s="214"/>
+      <c r="H11" s="217">
+        <v>14</v>
+      </c>
+      <c r="I11" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K11" s="221"/>
+      <c r="L11" s="214"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="217">
+        <v>15</v>
+      </c>
+      <c r="C12" s="226" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="221"/>
+      <c r="F12" s="214"/>
+      <c r="H12" s="217">
+        <v>16</v>
+      </c>
+      <c r="I12" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K12" s="221"/>
+      <c r="L12" s="214"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="217">
+        <v>17</v>
+      </c>
+      <c r="C13" s="226" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" s="221"/>
+      <c r="F13" s="214"/>
+      <c r="H13" s="217">
+        <v>18</v>
+      </c>
+      <c r="I13" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="K13" s="221"/>
+      <c r="L13" s="214"/>
+    </row>
+    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="218">
+        <v>19</v>
+      </c>
+      <c r="C14" s="227" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="228" t="s">
+        <v>522</v>
+      </c>
+      <c r="E14" s="222"/>
+      <c r="F14" s="215"/>
+      <c r="H14" s="218">
+        <v>20</v>
+      </c>
+      <c r="I14" s="227" t="s">
+        <v>513</v>
+      </c>
+      <c r="J14" s="228" t="s">
+        <v>514</v>
+      </c>
+      <c r="K14" s="222"/>
+      <c r="L14" s="215"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="211" t="s">
         <v>536</v>
-      </c>
-      <c r="H8" s="223">
-        <v>8</v>
-      </c>
-      <c r="I8" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J8" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K8" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="L8" s="91" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="223">
-        <v>9</v>
-      </c>
-      <c r="C9" s="232" t="s">
-        <v>523</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>524</v>
-      </c>
-      <c r="E9" s="226" t="s">
-        <v>524</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>537</v>
-      </c>
-      <c r="H9" s="223">
-        <v>10</v>
-      </c>
-      <c r="I9" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K9" s="226" t="s">
-        <v>516</v>
-      </c>
-      <c r="L9" s="91" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="223">
-        <v>11</v>
-      </c>
-      <c r="C10" s="232" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>525</v>
-      </c>
-      <c r="E10" s="227"/>
-      <c r="F10" s="220"/>
-      <c r="H10" s="223">
-        <v>12</v>
-      </c>
-      <c r="I10" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J10" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K10" s="227"/>
-      <c r="L10" s="220"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="223">
-        <v>13</v>
-      </c>
-      <c r="C11" s="232" t="s">
-        <v>526</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>527</v>
-      </c>
-      <c r="E11" s="227"/>
-      <c r="F11" s="220"/>
-      <c r="H11" s="223">
-        <v>14</v>
-      </c>
-      <c r="I11" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K11" s="227"/>
-      <c r="L11" s="220"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="223">
-        <v>15</v>
-      </c>
-      <c r="C12" s="232" t="s">
-        <v>528</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="227"/>
-      <c r="F12" s="220"/>
-      <c r="H12" s="223">
-        <v>16</v>
-      </c>
-      <c r="I12" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J12" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="220"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="223">
-        <v>17</v>
-      </c>
-      <c r="C13" s="232" t="s">
-        <v>525</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>525</v>
-      </c>
-      <c r="E13" s="227"/>
-      <c r="F13" s="220"/>
-      <c r="H13" s="223">
-        <v>18</v>
-      </c>
-      <c r="I13" s="232" t="s">
-        <v>516</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="K13" s="227"/>
-      <c r="L13" s="220"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="224">
-        <v>19</v>
-      </c>
-      <c r="C14" s="233" t="s">
-        <v>529</v>
-      </c>
-      <c r="D14" s="234" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" s="228"/>
-      <c r="F14" s="221"/>
-      <c r="H14" s="224">
-        <v>20</v>
-      </c>
-      <c r="I14" s="233" t="s">
-        <v>516</v>
-      </c>
-      <c r="J14" s="234" t="s">
-        <v>517</v>
-      </c>
-      <c r="K14" s="228"/>
-      <c r="L14" s="221"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="217" t="s">
-        <v>539</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="217" t="s">
-        <v>521</v>
+      <c r="B16" s="211" t="s">
+        <v>518</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="217" t="s">
-        <v>522</v>
+      <c r="B17" s="211" t="s">
+        <v>519</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="217" t="s">
-        <v>538</v>
+      <c r="B18" s="211" t="s">
+        <v>535</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>
@@ -10139,9 +10176,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="E27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="6">
